--- a/Code/Results/Cases/Case_3_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_6/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.720192882882429</v>
+        <v>3.720192882882372</v>
       </c>
       <c r="C2">
-        <v>0.6672965437413723</v>
+        <v>0.6672965437411733</v>
       </c>
       <c r="D2">
-        <v>0.1363598749795045</v>
+        <v>0.1363598749796608</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.552097454129125</v>
+        <v>6.552097454129154</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3563625890592803</v>
+        <v>0.3563625890592661</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5347848845562595</v>
+        <v>0.5347848845562382</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.17746130047874</v>
+        <v>3.177461300478683</v>
       </c>
       <c r="C3">
-        <v>0.5696326797108782</v>
+        <v>0.5696326797111055</v>
       </c>
       <c r="D3">
-        <v>0.1199405172143031</v>
+        <v>0.1199405172137489</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.70786074601682</v>
+        <v>5.707860746016792</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3057687673549978</v>
+        <v>0.3057687673549836</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4555164950295563</v>
+        <v>0.4555164950295705</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.854253634503948</v>
+        <v>2.854253634503777</v>
       </c>
       <c r="C4">
-        <v>0.5114237521877101</v>
+        <v>0.5114237521875111</v>
       </c>
       <c r="D4">
-        <v>0.1102155938653766</v>
+        <v>0.1102155938659024</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.206494194313336</v>
+        <v>5.206494194313393</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2757633926090506</v>
+        <v>0.2757633926090435</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4084537749199413</v>
+        <v>0.4084537749199626</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,16 +529,16 @@
         <v>2.724657655012834</v>
       </c>
       <c r="C5">
-        <v>0.4880656203850151</v>
+        <v>0.4880656203853277</v>
       </c>
       <c r="D5">
-        <v>0.1063265766149968</v>
+        <v>0.1063265766148476</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.005785162189795</v>
+        <v>5.005785162189824</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2637592776011886</v>
+        <v>0.2637592776011957</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3896122578392962</v>
+        <v>0.3896122578393602</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.70325508487673</v>
+        <v>2.703255084876616</v>
       </c>
       <c r="C6">
         <v>0.4842067993294563</v>
       </c>
       <c r="D6">
-        <v>0.1056848552192236</v>
+        <v>0.1056848552193088</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2617783401758658</v>
+        <v>0.26177834017588</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3865021876848047</v>
+        <v>0.3865021876847834</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.852497799804894</v>
+        <v>2.852497799805064</v>
       </c>
       <c r="C7">
-        <v>0.5111073655101279</v>
+        <v>0.5111073655103837</v>
       </c>
       <c r="D7">
-        <v>0.110162864991068</v>
+        <v>0.1101628649910538</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.203773603837504</v>
+        <v>5.203773603837533</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2756006494612251</v>
+        <v>0.2756006494612393</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.408198389955821</v>
+        <v>0.4081983899558139</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.530712486763605</v>
+        <v>3.530712486763719</v>
       </c>
       <c r="C8">
-        <v>0.6332059054183503</v>
+        <v>0.6332059054186061</v>
       </c>
       <c r="D8">
-        <v>0.1306143132493958</v>
+        <v>0.1306143132491115</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.257042739322401</v>
+        <v>6.257042739322486</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3386700773584366</v>
+        <v>0.3386700773584579</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5070755617180893</v>
+        <v>0.5070755617181035</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.962333892008644</v>
+        <v>4.962333892008701</v>
       </c>
       <c r="C9">
-        <v>0.890887646190663</v>
+        <v>0.8908876461902935</v>
       </c>
       <c r="D9">
-        <v>0.1743936403087361</v>
+        <v>0.1743936403085655</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.493409201385276</v>
+        <v>8.493409201385191</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4730799799017475</v>
+        <v>0.4730799799017049</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7173944015326157</v>
+        <v>0.7173944015325873</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.114250874207983</v>
+        <v>6.114250874207926</v>
       </c>
       <c r="C10">
-        <v>1.098832799674824</v>
+        <v>1.098832799674852</v>
       </c>
       <c r="D10">
-        <v>0.2102557793709536</v>
+        <v>0.2102557793709394</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.30257265662073</v>
+        <v>10.30257265662078</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5824016259421185</v>
+        <v>0.5824016259421683</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8882986595985898</v>
+        <v>0.8882986595985614</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.671464178084932</v>
+        <v>6.671464178084761</v>
       </c>
       <c r="C11">
-        <v>1.199749565577093</v>
+        <v>1.199749565576667</v>
       </c>
       <c r="D11">
-        <v>0.2278102275596154</v>
+        <v>0.2278102275591891</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.18009962341256</v>
+        <v>11.1800996234125</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6356431555553002</v>
+        <v>0.6356431555552717</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9715348450622372</v>
+        <v>0.971534845062223</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>6.888515658624215</v>
       </c>
       <c r="C12">
-        <v>1.239128564836022</v>
+        <v>1.239128564836562</v>
       </c>
       <c r="D12">
-        <v>0.2346847893934836</v>
+        <v>0.2346847893934978</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.52227886870674</v>
+        <v>11.52227886870662</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6564449271562935</v>
+        <v>0.6564449271563291</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.004060863206817</v>
+        <v>1.004060863206831</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.84147676753031</v>
+        <v>6.841476767530537</v>
       </c>
       <c r="C13">
-        <v>1.23059098755769</v>
+        <v>1.230590987557605</v>
       </c>
       <c r="D13">
-        <v>0.233193210658996</v>
+        <v>0.2331932106588539</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.44810672194228</v>
+        <v>11.44810672194257</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.65193384748261</v>
+        <v>0.6519338474825958</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9970069373364936</v>
+        <v>0.997006937336522</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.689191416719325</v>
+        <v>6.689191416719439</v>
       </c>
       <c r="C14">
-        <v>1.202964255730222</v>
+        <v>1.20296425573008</v>
       </c>
       <c r="D14">
-        <v>0.2283709246726318</v>
+        <v>0.2283709246728733</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>11.20803931382073</v>
+        <v>11.2080393138213</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6373407857761322</v>
+        <v>0.6373407857760895</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9741891544606318</v>
+        <v>0.9741891544606034</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,16 +909,16 @@
         <v>6.596743346756682</v>
       </c>
       <c r="C15">
-        <v>1.186202443639075</v>
+        <v>1.186202443637711</v>
       </c>
       <c r="D15">
-        <v>0.225448375941582</v>
+        <v>0.2254483759417241</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11.06234726473997</v>
+        <v>11.06234726474014</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6284901627117563</v>
+        <v>0.6284901627117492</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9603511070680497</v>
+        <v>0.9603511070680355</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.078605099476135</v>
+        <v>6.078605099475965</v>
       </c>
       <c r="C16">
-        <v>1.092385122472649</v>
+        <v>1.092385122472706</v>
       </c>
       <c r="D16">
-        <v>0.2091373942025996</v>
+        <v>0.2091373942026848</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.24648395403986</v>
+        <v>10.24648395403955</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5790035905655486</v>
+        <v>0.5790035905654989</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8829866901965744</v>
+        <v>0.8829866901965318</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.770053664480145</v>
+        <v>5.770053664480429</v>
       </c>
       <c r="C17">
-        <v>1.036611328574878</v>
+        <v>1.03661132857485</v>
       </c>
       <c r="D17">
-        <v>0.1994797033754878</v>
+        <v>0.1994797033761699</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.761238113811658</v>
+        <v>9.761238113811601</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5496300329224795</v>
+        <v>0.5496300329224866</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.837069279446581</v>
+        <v>0.8370692794465668</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.595615492193588</v>
+        <v>5.595615492193474</v>
       </c>
       <c r="C18">
         <v>1.005108110441569</v>
       </c>
       <c r="D18">
-        <v>0.1940380843349203</v>
+        <v>0.1940380843348635</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.487122414066363</v>
+        <v>9.487122414066505</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5330556958060342</v>
+        <v>0.53305569580602</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8111598145561771</v>
+        <v>0.8111598145561842</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,10 +1058,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.53704095530253</v>
+        <v>5.5370409553027</v>
       </c>
       <c r="C19">
-        <v>0.9945339534389461</v>
+        <v>0.994533953439344</v>
       </c>
       <c r="D19">
         <v>0.1922138083478586</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5274953955244825</v>
+        <v>0.5274953955244683</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8024676696242778</v>
+        <v>0.8024676696243063</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.802577467368053</v>
+        <v>5.802577467367882</v>
       </c>
       <c r="C20">
-        <v>1.042487256794885</v>
+        <v>1.042487256794459</v>
       </c>
       <c r="D20">
-        <v>0.2004957495994546</v>
+        <v>0.2004957495996962</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.812364324229065</v>
+        <v>9.812364324228952</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5527228526466033</v>
+        <v>0.552722852646518</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8419040259495887</v>
+        <v>0.8419040259496526</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.733745334688933</v>
+        <v>6.73374533468899</v>
       </c>
       <c r="C21">
-        <v>1.211044918241384</v>
+        <v>1.211044918241811</v>
       </c>
       <c r="D21">
-        <v>0.2297807300543582</v>
+        <v>0.2297807300546992</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.27826587220164</v>
+        <v>11.27826587220193</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9808619505074176</v>
+        <v>0.9808619505073608</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.378430382422721</v>
+        <v>7.378430382422948</v>
       </c>
       <c r="C22">
-        <v>1.328167117465796</v>
+        <v>1.328167117465682</v>
       </c>
       <c r="D22">
-        <v>0.2502769156670865</v>
+        <v>0.2502769156672713</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>12.29527790513032</v>
+        <v>12.29527790513049</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7035257082967803</v>
+        <v>0.7035257082967519</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.077693497870868</v>
+        <v>1.077693497870854</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.030527792324676</v>
+        <v>7.030527792324563</v>
       </c>
       <c r="C23">
-        <v>1.264915690613691</v>
+        <v>1.264915690613293</v>
       </c>
       <c r="D23">
-        <v>0.2391937586797468</v>
+        <v>0.2391937586791499</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.74625880710681</v>
+        <v>11.74625880710664</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6700739943885736</v>
+        <v>0.6700739943885594</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.025373689561505</v>
+        <v>1.025373689561405</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.787864351969745</v>
+        <v>5.787864351969858</v>
       </c>
       <c r="C24">
-        <v>1.039829017762145</v>
+        <v>1.039829017761349</v>
       </c>
       <c r="D24">
-        <v>0.2000360537334984</v>
+        <v>0.2000360537333847</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.789235177229187</v>
+        <v>9.789235177228903</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5513236239005508</v>
+        <v>0.551323623900565</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8397167292222747</v>
+        <v>0.8397167292222534</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.560693165698922</v>
+        <v>4.560693165698865</v>
       </c>
       <c r="C25">
         <v>0.8185452428285487</v>
       </c>
       <c r="D25">
-        <v>0.1620242490269135</v>
+        <v>0.1620242490267003</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.864466926370824</v>
+        <v>7.864466926370881</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4352039394267635</v>
+        <v>0.4352039394267067</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6581625841238647</v>
+        <v>0.6581625841238434</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_6/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.720192882882372</v>
+        <v>3.720192882882429</v>
       </c>
       <c r="C2">
-        <v>0.6672965437411733</v>
+        <v>0.6672965437413723</v>
       </c>
       <c r="D2">
-        <v>0.1363598749796608</v>
+        <v>0.1363598749795045</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.552097454129154</v>
+        <v>6.552097454129125</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3563625890592661</v>
+        <v>0.3563625890592803</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5347848845562382</v>
+        <v>0.5347848845562595</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.177461300478683</v>
+        <v>3.17746130047874</v>
       </c>
       <c r="C3">
-        <v>0.5696326797111055</v>
+        <v>0.5696326797108782</v>
       </c>
       <c r="D3">
-        <v>0.1199405172137489</v>
+        <v>0.1199405172143031</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.707860746016792</v>
+        <v>5.70786074601682</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3057687673549836</v>
+        <v>0.3057687673549978</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4555164950295705</v>
+        <v>0.4555164950295563</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.854253634503777</v>
+        <v>2.854253634503948</v>
       </c>
       <c r="C4">
-        <v>0.5114237521875111</v>
+        <v>0.5114237521877101</v>
       </c>
       <c r="D4">
-        <v>0.1102155938659024</v>
+        <v>0.1102155938653766</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.206494194313393</v>
+        <v>5.206494194313336</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2757633926090435</v>
+        <v>0.2757633926090506</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4084537749199626</v>
+        <v>0.4084537749199413</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,16 +529,16 @@
         <v>2.724657655012834</v>
       </c>
       <c r="C5">
-        <v>0.4880656203853277</v>
+        <v>0.4880656203850151</v>
       </c>
       <c r="D5">
-        <v>0.1063265766148476</v>
+        <v>0.1063265766149968</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.005785162189824</v>
+        <v>5.005785162189795</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2637592776011957</v>
+        <v>0.2637592776011886</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3896122578393602</v>
+        <v>0.3896122578392962</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.703255084876616</v>
+        <v>2.70325508487673</v>
       </c>
       <c r="C6">
         <v>0.4842067993294563</v>
       </c>
       <c r="D6">
-        <v>0.1056848552193088</v>
+        <v>0.1056848552192236</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.26177834017588</v>
+        <v>0.2617783401758658</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3865021876847834</v>
+        <v>0.3865021876848047</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.852497799805064</v>
+        <v>2.852497799804894</v>
       </c>
       <c r="C7">
-        <v>0.5111073655103837</v>
+        <v>0.5111073655101279</v>
       </c>
       <c r="D7">
-        <v>0.1101628649910538</v>
+        <v>0.110162864991068</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.203773603837533</v>
+        <v>5.203773603837504</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2756006494612393</v>
+        <v>0.2756006494612251</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4081983899558139</v>
+        <v>0.408198389955821</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.530712486763719</v>
+        <v>3.530712486763605</v>
       </c>
       <c r="C8">
-        <v>0.6332059054186061</v>
+        <v>0.6332059054183503</v>
       </c>
       <c r="D8">
-        <v>0.1306143132491115</v>
+        <v>0.1306143132493958</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.257042739322486</v>
+        <v>6.257042739322401</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3386700773584579</v>
+        <v>0.3386700773584366</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5070755617181035</v>
+        <v>0.5070755617180893</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.962333892008701</v>
+        <v>4.962333892008644</v>
       </c>
       <c r="C9">
-        <v>0.8908876461902935</v>
+        <v>0.890887646190663</v>
       </c>
       <c r="D9">
-        <v>0.1743936403085655</v>
+        <v>0.1743936403087361</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.493409201385191</v>
+        <v>8.493409201385276</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4730799799017049</v>
+        <v>0.4730799799017475</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7173944015325873</v>
+        <v>0.7173944015326157</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.114250874207926</v>
+        <v>6.114250874207983</v>
       </c>
       <c r="C10">
-        <v>1.098832799674852</v>
+        <v>1.098832799674824</v>
       </c>
       <c r="D10">
-        <v>0.2102557793709394</v>
+        <v>0.2102557793709536</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.30257265662078</v>
+        <v>10.30257265662073</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5824016259421683</v>
+        <v>0.5824016259421185</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8882986595985614</v>
+        <v>0.8882986595985898</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.671464178084761</v>
+        <v>6.671464178084932</v>
       </c>
       <c r="C11">
-        <v>1.199749565576667</v>
+        <v>1.199749565577093</v>
       </c>
       <c r="D11">
-        <v>0.2278102275591891</v>
+        <v>0.2278102275596154</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.1800996234125</v>
+        <v>11.18009962341256</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6356431555552717</v>
+        <v>0.6356431555553002</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.971534845062223</v>
+        <v>0.9715348450622372</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>6.888515658624215</v>
       </c>
       <c r="C12">
-        <v>1.239128564836562</v>
+        <v>1.239128564836022</v>
       </c>
       <c r="D12">
-        <v>0.2346847893934978</v>
+        <v>0.2346847893934836</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.52227886870662</v>
+        <v>11.52227886870674</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6564449271563291</v>
+        <v>0.6564449271562935</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.004060863206831</v>
+        <v>1.004060863206817</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.841476767530537</v>
+        <v>6.84147676753031</v>
       </c>
       <c r="C13">
-        <v>1.230590987557605</v>
+        <v>1.23059098755769</v>
       </c>
       <c r="D13">
-        <v>0.2331932106588539</v>
+        <v>0.233193210658996</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.44810672194257</v>
+        <v>11.44810672194228</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6519338474825958</v>
+        <v>0.65193384748261</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.997006937336522</v>
+        <v>0.9970069373364936</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.689191416719439</v>
+        <v>6.689191416719325</v>
       </c>
       <c r="C14">
-        <v>1.20296425573008</v>
+        <v>1.202964255730222</v>
       </c>
       <c r="D14">
-        <v>0.2283709246728733</v>
+        <v>0.2283709246726318</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>11.2080393138213</v>
+        <v>11.20803931382073</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6373407857760895</v>
+        <v>0.6373407857761322</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9741891544606034</v>
+        <v>0.9741891544606318</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,16 +909,16 @@
         <v>6.596743346756682</v>
       </c>
       <c r="C15">
-        <v>1.186202443637711</v>
+        <v>1.186202443639075</v>
       </c>
       <c r="D15">
-        <v>0.2254483759417241</v>
+        <v>0.225448375941582</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11.06234726474014</v>
+        <v>11.06234726473997</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6284901627117492</v>
+        <v>0.6284901627117563</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9603511070680355</v>
+        <v>0.9603511070680497</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.078605099475965</v>
+        <v>6.078605099476135</v>
       </c>
       <c r="C16">
-        <v>1.092385122472706</v>
+        <v>1.092385122472649</v>
       </c>
       <c r="D16">
-        <v>0.2091373942026848</v>
+        <v>0.2091373942025996</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.24648395403955</v>
+        <v>10.24648395403986</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5790035905654989</v>
+        <v>0.5790035905655486</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8829866901965318</v>
+        <v>0.8829866901965744</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.770053664480429</v>
+        <v>5.770053664480145</v>
       </c>
       <c r="C17">
-        <v>1.03661132857485</v>
+        <v>1.036611328574878</v>
       </c>
       <c r="D17">
-        <v>0.1994797033761699</v>
+        <v>0.1994797033754878</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.761238113811601</v>
+        <v>9.761238113811658</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5496300329224866</v>
+        <v>0.5496300329224795</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8370692794465668</v>
+        <v>0.837069279446581</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.595615492193474</v>
+        <v>5.595615492193588</v>
       </c>
       <c r="C18">
         <v>1.005108110441569</v>
       </c>
       <c r="D18">
-        <v>0.1940380843348635</v>
+        <v>0.1940380843349203</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.487122414066505</v>
+        <v>9.487122414066363</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.53305569580602</v>
+        <v>0.5330556958060342</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8111598145561842</v>
+        <v>0.8111598145561771</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,10 +1058,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.5370409553027</v>
+        <v>5.53704095530253</v>
       </c>
       <c r="C19">
-        <v>0.994533953439344</v>
+        <v>0.9945339534389461</v>
       </c>
       <c r="D19">
         <v>0.1922138083478586</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5274953955244683</v>
+        <v>0.5274953955244825</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8024676696243063</v>
+        <v>0.8024676696242778</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.802577467367882</v>
+        <v>5.802577467368053</v>
       </c>
       <c r="C20">
-        <v>1.042487256794459</v>
+        <v>1.042487256794885</v>
       </c>
       <c r="D20">
-        <v>0.2004957495996962</v>
+        <v>0.2004957495994546</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.812364324228952</v>
+        <v>9.812364324229065</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.552722852646518</v>
+        <v>0.5527228526466033</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8419040259496526</v>
+        <v>0.8419040259495887</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.73374533468899</v>
+        <v>6.733745334688933</v>
       </c>
       <c r="C21">
-        <v>1.211044918241811</v>
+        <v>1.211044918241384</v>
       </c>
       <c r="D21">
-        <v>0.2297807300546992</v>
+        <v>0.2297807300543582</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.27826587220193</v>
+        <v>11.27826587220164</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9808619505073608</v>
+        <v>0.9808619505074176</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.378430382422948</v>
+        <v>7.378430382422721</v>
       </c>
       <c r="C22">
-        <v>1.328167117465682</v>
+        <v>1.328167117465796</v>
       </c>
       <c r="D22">
-        <v>0.2502769156672713</v>
+        <v>0.2502769156670865</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>12.29527790513049</v>
+        <v>12.29527790513032</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7035257082967519</v>
+        <v>0.7035257082967803</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.077693497870854</v>
+        <v>1.077693497870868</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.030527792324563</v>
+        <v>7.030527792324676</v>
       </c>
       <c r="C23">
-        <v>1.264915690613293</v>
+        <v>1.264915690613691</v>
       </c>
       <c r="D23">
-        <v>0.2391937586791499</v>
+        <v>0.2391937586797468</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.74625880710664</v>
+        <v>11.74625880710681</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6700739943885594</v>
+        <v>0.6700739943885736</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.025373689561405</v>
+        <v>1.025373689561505</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.787864351969858</v>
+        <v>5.787864351969745</v>
       </c>
       <c r="C24">
-        <v>1.039829017761349</v>
+        <v>1.039829017762145</v>
       </c>
       <c r="D24">
-        <v>0.2000360537333847</v>
+        <v>0.2000360537334984</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.789235177228903</v>
+        <v>9.789235177229187</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.551323623900565</v>
+        <v>0.5513236239005508</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8397167292222534</v>
+        <v>0.8397167292222747</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.560693165698865</v>
+        <v>4.560693165698922</v>
       </c>
       <c r="C25">
         <v>0.8185452428285487</v>
       </c>
       <c r="D25">
-        <v>0.1620242490267003</v>
+        <v>0.1620242490269135</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.864466926370881</v>
+        <v>7.864466926370824</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4352039394267067</v>
+        <v>0.4352039394267635</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6581625841238434</v>
+        <v>0.6581625841238647</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_6/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.720192882882429</v>
+        <v>3.683727563454113</v>
       </c>
       <c r="C2">
-        <v>0.6672965437413723</v>
+        <v>0.6521399049997569</v>
       </c>
       <c r="D2">
-        <v>0.1363598749795045</v>
+        <v>0.1395815782986318</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.552097454129125</v>
+        <v>6.555751746449147</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007644853632908056</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3563625890592803</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3545963279845381</v>
       </c>
       <c r="K2">
-        <v>0.5347848845562595</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.5318164123417191</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.17746130047874</v>
+        <v>3.147880611854646</v>
       </c>
       <c r="C3">
-        <v>0.5696326797108782</v>
+        <v>0.5562116633346648</v>
       </c>
       <c r="D3">
-        <v>0.1199405172143031</v>
+        <v>0.1233012220532927</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.70786074601682</v>
+        <v>5.719658394589345</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007772922469052811</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3057687673549978</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3042918369214149</v>
       </c>
       <c r="K3">
-        <v>0.4555164950295563</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.4530595369718853</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.854253634503948</v>
+        <v>2.828829364157627</v>
       </c>
       <c r="C4">
-        <v>0.5114237521877101</v>
+        <v>0.4990569965216878</v>
       </c>
       <c r="D4">
-        <v>0.1102155938653766</v>
+        <v>0.1136555214560389</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.206494194313336</v>
+        <v>5.223102886936289</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007852656888265308</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2757633926090506</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2744506656261905</v>
       </c>
       <c r="K4">
-        <v>0.4084537749199413</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.406291855321939</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.724657655012834</v>
+        <v>2.700916805503482</v>
       </c>
       <c r="C5">
-        <v>0.4880656203850151</v>
+        <v>0.4761273113927302</v>
       </c>
       <c r="D5">
-        <v>0.1063265766149968</v>
+        <v>0.1097975324378595</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.005785162189795</v>
+        <v>5.024318431199049</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007885479758763745</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2637592776011886</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2625107329883676</v>
       </c>
       <c r="K5">
-        <v>0.3896122578392962</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.3875668135414116</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.70325508487673</v>
+        <v>2.679793333599946</v>
       </c>
       <c r="C6">
-        <v>0.4842067993294563</v>
+        <v>0.4723396067921612</v>
       </c>
       <c r="D6">
-        <v>0.1056848552192236</v>
+        <v>0.1091608947707812</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.97265709936093</v>
+        <v>4.991508070619972</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007890951379926618</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2617783401758658</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2605403046802479</v>
       </c>
       <c r="K6">
-        <v>0.3865021876848047</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.3844758836235371</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.852497799804894</v>
+        <v>2.82709626570454</v>
       </c>
       <c r="C7">
-        <v>0.5111073655101279</v>
+        <v>0.4987463907481811</v>
       </c>
       <c r="D7">
-        <v>0.110162864991068</v>
+        <v>0.1136032157844014</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.203773603837504</v>
+        <v>5.220408383779983</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007853098144241737</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2756006494612251</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2742887983566291</v>
       </c>
       <c r="K7">
-        <v>0.408198389955821</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.4060380551715781</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.530712486763605</v>
+        <v>3.49664061025328</v>
       </c>
       <c r="C8">
-        <v>0.6332059054183503</v>
+        <v>0.6186512032389828</v>
       </c>
       <c r="D8">
-        <v>0.1306143132493958</v>
+        <v>0.1338854042634097</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.257042739322401</v>
+        <v>6.2635517488836</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007688818309314103</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3386700773584366</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3370068015313876</v>
       </c>
       <c r="K8">
-        <v>0.5070755617180893</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.5042880988128076</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.962333892008644</v>
+        <v>4.910269225502645</v>
       </c>
       <c r="C9">
-        <v>0.890887646190663</v>
+        <v>0.8718429671103536</v>
       </c>
       <c r="D9">
-        <v>0.1743936403087361</v>
+        <v>0.1772677765795123</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.493409201385276</v>
+        <v>8.477897148029001</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007372506731032154</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4730799799017475</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.4705828224532596</v>
       </c>
       <c r="K9">
-        <v>0.7173944015326157</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.7131654396160556</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.114250874207983</v>
+        <v>6.04755427611201</v>
       </c>
       <c r="C10">
-        <v>1.098832799674824</v>
+        <v>1.07619146229888</v>
       </c>
       <c r="D10">
-        <v>0.2102557793709536</v>
+        <v>0.2127674770918162</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.30257265662073</v>
+        <v>10.268310566922</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007138728223702906</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5824016259421185</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5791302769300728</v>
       </c>
       <c r="K10">
-        <v>0.8882986595985898</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.8827640372122403</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.671464178084932</v>
+        <v>6.597530982809928</v>
       </c>
       <c r="C11">
-        <v>1.199749565577093</v>
+        <v>1.175345706261282</v>
       </c>
       <c r="D11">
-        <v>0.2278102275596154</v>
+        <v>0.2301310895234252</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.18009962341256</v>
+        <v>11.13632722899848</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007030608494945246</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6356431555553002</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.6319590989397099</v>
       </c>
       <c r="K11">
-        <v>0.9715348450622372</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.9653116874067109</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.888515658624215</v>
+        <v>6.811724799312401</v>
       </c>
       <c r="C12">
-        <v>1.239128564836022</v>
+        <v>1.214031501371522</v>
       </c>
       <c r="D12">
-        <v>0.2346847893934836</v>
+        <v>0.2369283377442883</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.52227886870674</v>
+        <v>11.47471189662951</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006989249297034792</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6564449271562935</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.6525926674351012</v>
       </c>
       <c r="K12">
-        <v>1.004060863206817</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.9975581630508259</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.84147676753031</v>
+        <v>6.765307253326512</v>
       </c>
       <c r="C13">
-        <v>1.23059098755769</v>
+        <v>1.2056445163565</v>
       </c>
       <c r="D13">
-        <v>0.233193210658996</v>
+        <v>0.2354536607824684</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.44810672194228</v>
+        <v>11.40136661857514</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006998178311253744</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.65193384748261</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.6481184085614373</v>
       </c>
       <c r="K13">
-        <v>0.9970069373364936</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.9905653838568043</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.689191416719325</v>
+        <v>6.615025710427005</v>
       </c>
       <c r="C14">
-        <v>1.202964255730222</v>
+        <v>1.178503936336824</v>
       </c>
       <c r="D14">
-        <v>0.2283709246726318</v>
+        <v>0.2306855364873996</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>11.20803931382073</v>
+        <v>11.16395897867397</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007027215278458867</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6373407857761322</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.6336431528494444</v>
       </c>
       <c r="K14">
-        <v>0.9741891544606318</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.9679434129027129</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.596743346756682</v>
+        <v>6.523788533239269</v>
       </c>
       <c r="C15">
-        <v>1.186202443639075</v>
+        <v>1.162036276333765</v>
       </c>
       <c r="D15">
-        <v>0.225448375941582</v>
+        <v>0.227795458523687</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11.06234726473997</v>
+        <v>11.01986907256094</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007044941481529771</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6284901627117563</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.624863020236937</v>
       </c>
       <c r="K15">
-        <v>0.9603511070680497</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.9542226669744451</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.078605099476135</v>
+        <v>6.012367125162768</v>
       </c>
       <c r="C16">
-        <v>1.092385122472649</v>
+        <v>1.069855837022317</v>
       </c>
       <c r="D16">
-        <v>0.2091373942025996</v>
+        <v>0.2116609392024742</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.24648395403986</v>
+        <v>10.21281960043493</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007145745534896616</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5790035905655486</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5757577469598161</v>
       </c>
       <c r="K16">
-        <v>0.8829866901965744</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.8774947605886894</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.770053664480145</v>
+        <v>5.707767055512591</v>
       </c>
       <c r="C17">
-        <v>1.036611328574878</v>
+        <v>1.015049230771183</v>
       </c>
       <c r="D17">
-        <v>0.1994797033754878</v>
+        <v>0.2021040565999499</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.761238113811658</v>
+        <v>9.732697881255149</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007207028818083661</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5496300329224795</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5466006678046966</v>
       </c>
       <c r="K17">
-        <v>0.837069279446581</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.8319404760795592</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.595615492193588</v>
+        <v>5.535549552561349</v>
       </c>
       <c r="C18">
-        <v>1.005108110441569</v>
+        <v>0.9840909968414735</v>
       </c>
       <c r="D18">
-        <v>0.1940380843349203</v>
+        <v>0.1967180767646255</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.487122414066363</v>
+        <v>9.461441101771612</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007242122197346483</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5330556958060342</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5301453942159284</v>
       </c>
       <c r="K18">
-        <v>0.8111598145561771</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.8062313707842037</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.53704095530253</v>
+        <v>5.477718801993774</v>
       </c>
       <c r="C19">
-        <v>0.9945339534389461</v>
+        <v>0.9736996087565331</v>
       </c>
       <c r="D19">
-        <v>0.1922138083478586</v>
+        <v>0.1949122696499614</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.395113765210283</v>
+        <v>9.370386567023928</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007253981849507905</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5274953955244825</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5246245504106426</v>
       </c>
       <c r="K19">
-        <v>0.8024676696242778</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.7976057325958976</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.802577467368053</v>
+        <v>5.739875823522652</v>
       </c>
       <c r="C20">
-        <v>1.042487256794885</v>
+        <v>1.020823418117629</v>
       </c>
       <c r="D20">
-        <v>0.2004957495994546</v>
+        <v>0.2031096221634954</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.812364324229065</v>
+        <v>9.783288083222629</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.000720052220613396</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5527228526466033</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5496710265401319</v>
       </c>
       <c r="K20">
-        <v>0.8419040259495887</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.8367374785938893</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.733745334688933</v>
+        <v>6.65899457877731</v>
       </c>
       <c r="C21">
-        <v>1.211044918241384</v>
+        <v>1.186442578517244</v>
       </c>
       <c r="D21">
-        <v>0.2297807300543582</v>
+        <v>0.2320795832400933</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.27826587220164</v>
+        <v>11.23341005626099</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007018699227188479</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6416084756118536</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6378765956816039</v>
       </c>
       <c r="K21">
-        <v>0.9808619505074176</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.9745592565874119</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.378430382422721</v>
+        <v>7.295094823978388</v>
       </c>
       <c r="C22">
-        <v>1.328167117465796</v>
+        <v>1.301488205392616</v>
       </c>
       <c r="D22">
-        <v>0.2502769156670865</v>
+        <v>0.2523394408845547</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>12.29527790513032</v>
+        <v>12.23894265315477</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.000689732981865264</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7035257082967803</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6992773546405573</v>
       </c>
       <c r="K22">
-        <v>1.077693497870868</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1.070534499278608</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.030527792324676</v>
+        <v>6.951853902136634</v>
       </c>
       <c r="C23">
-        <v>1.264915690613691</v>
+        <v>1.239362689272525</v>
       </c>
       <c r="D23">
-        <v>0.2391937586797468</v>
+        <v>0.2413857794257126</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.74625880710681</v>
+        <v>11.69617992701916</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006962404615005832</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6700739943885736</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6661093103857993</v>
       </c>
       <c r="K23">
-        <v>1.025373689561505</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1.018684444848134</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.787864351969745</v>
+        <v>5.725350501951425</v>
       </c>
       <c r="C24">
-        <v>1.039829017762145</v>
+        <v>1.018211210066113</v>
       </c>
       <c r="D24">
-        <v>0.2000360537334984</v>
+        <v>0.2026546717281974</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.789235177229187</v>
+        <v>9.760401532993399</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007203464266860582</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5513236239005508</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5482819689807243</v>
       </c>
       <c r="K24">
-        <v>0.8397167292222747</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.8345672717460673</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.560693165698922</v>
+        <v>4.513671963629804</v>
       </c>
       <c r="C25">
-        <v>0.8185452428285487</v>
+        <v>0.8007512289123326</v>
       </c>
       <c r="D25">
-        <v>0.1620242490269135</v>
+        <v>0.1650154203664158</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.864466926370824</v>
+        <v>7.855252174854712</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007457903907494811</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4352039394267635</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.4329541243810127</v>
       </c>
       <c r="K25">
-        <v>0.6581625841238647</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>0.6543562590007852</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_6/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.683727563454113</v>
+        <v>5.171122763002302</v>
       </c>
       <c r="C2">
-        <v>0.6521399049997569</v>
+        <v>0.822439217282863</v>
       </c>
       <c r="D2">
-        <v>0.1395815782986318</v>
+        <v>0.06062697868106426</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.555751746449147</v>
+        <v>2.734820760383201</v>
       </c>
       <c r="G2">
-        <v>0.0007644853632908056</v>
+        <v>0.0007814971724626941</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3545963279845381</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5318164123417191</v>
+        <v>0.4101934603513371</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>1.124957263349629</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.147880611854646</v>
+        <v>4.47056317725071</v>
       </c>
       <c r="C3">
-        <v>0.5562116633346648</v>
+        <v>0.7084677320407593</v>
       </c>
       <c r="D3">
-        <v>0.1233012220532927</v>
+        <v>0.05968143107478596</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.719658394589345</v>
+        <v>2.438490144804604</v>
       </c>
       <c r="G3">
-        <v>0.0007772922469052811</v>
+        <v>0.0007921022002280731</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3042918369214149</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4530595369718853</v>
+        <v>0.3593807355665319</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>1.15041792666112</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.828829364157627</v>
+        <v>4.050059074219575</v>
       </c>
       <c r="C4">
-        <v>0.4990569965216878</v>
+        <v>0.6397297777819517</v>
       </c>
       <c r="D4">
-        <v>0.1136555214560389</v>
+        <v>0.05928271409106856</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.223102886936289</v>
+        <v>2.263577183744673</v>
       </c>
       <c r="G4">
-        <v>0.0007852656888265308</v>
+        <v>0.0007987585778785888</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2744506656261905</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.406291855321939</v>
+        <v>0.3290221284412382</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>1.168281871160815</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.700916805503482</v>
+        <v>3.88078528371517</v>
       </c>
       <c r="C5">
-        <v>0.4761273113927302</v>
+        <v>0.6119756537712249</v>
       </c>
       <c r="D5">
-        <v>0.1097975324378595</v>
+        <v>0.05916158585748121</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.024318431199049</v>
+        <v>2.193859488817736</v>
       </c>
       <c r="G5">
-        <v>0.0007885479758763745</v>
+        <v>0.0008015103793019482</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2625107329883676</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3875668135414116</v>
+        <v>0.3168356491393212</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>1.176081453833916</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.679793333599946</v>
+        <v>3.852794154427158</v>
       </c>
       <c r="C6">
-        <v>0.4723396067921612</v>
+        <v>0.6073811374329523</v>
       </c>
       <c r="D6">
-        <v>0.1091608947707812</v>
+        <v>0.05914385141542056</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.991508070619972</v>
+        <v>2.182371493330635</v>
       </c>
       <c r="G6">
-        <v>0.0007890951379926618</v>
+        <v>0.000801969763914347</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2605403046802479</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3844758836235371</v>
+        <v>0.3148225365563491</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>1.177406846215931</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.82709626570454</v>
+        <v>4.047768170179211</v>
       </c>
       <c r="C7">
-        <v>0.4987463907481811</v>
+        <v>0.639354503150571</v>
       </c>
       <c r="D7">
-        <v>0.1136032157844014</v>
+        <v>0.05928091850947226</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.220408383779983</v>
+        <v>2.262630887032415</v>
       </c>
       <c r="G7">
-        <v>0.0007853098144241737</v>
+        <v>0.0007987955269580582</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2742887983566291</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4060380551715781</v>
+        <v>0.32885706175243</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>1.168385005325646</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.49664061025328</v>
+        <v>4.927352673718133</v>
       </c>
       <c r="C8">
-        <v>0.6186512032389828</v>
+        <v>0.7828493091641064</v>
       </c>
       <c r="D8">
-        <v>0.1338854042634097</v>
+        <v>0.06026041549264249</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.2635517488836</v>
+        <v>2.63105341404102</v>
       </c>
       <c r="G8">
-        <v>0.0007688818309314103</v>
+        <v>0.0007851255302319958</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3370068015313876</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5042880988128076</v>
+        <v>0.3924819521807024</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>1.133246912755041</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.910269225502645</v>
+        <v>6.746199703533193</v>
       </c>
       <c r="C9">
-        <v>0.8718429671103536</v>
+        <v>1.076928249526389</v>
       </c>
       <c r="D9">
-        <v>0.1772677765795123</v>
+        <v>0.06385164231866014</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.477897148029001</v>
+        <v>3.420058017910463</v>
       </c>
       <c r="G9">
-        <v>0.0007372506731032154</v>
+        <v>0.0007593221972059805</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4705828224532596</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.7131654396160556</v>
+        <v>0.5252782331847783</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>1.084155101866997</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.04755427611201</v>
+        <v>8.168155947808145</v>
       </c>
       <c r="C10">
-        <v>1.07619146229888</v>
+        <v>1.305355979670935</v>
       </c>
       <c r="D10">
-        <v>0.2127674770918162</v>
+        <v>0.06788286483966743</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.268310566922</v>
+        <v>4.057660518617496</v>
       </c>
       <c r="G10">
-        <v>0.0007138728223702906</v>
+        <v>0.0007407410121137731</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5791302769300728</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.8827640372122403</v>
+        <v>0.6299324418342422</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>1.063593661799757</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.597530982809928</v>
+        <v>8.841357722600378</v>
       </c>
       <c r="C11">
-        <v>1.175345706261282</v>
+        <v>1.413231772923439</v>
       </c>
       <c r="D11">
-        <v>0.2301310895234252</v>
+        <v>0.07012356622622207</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.13632722899848</v>
+        <v>4.365031820044521</v>
       </c>
       <c r="G11">
-        <v>0.0007030608494945246</v>
+        <v>0.0007323060612976616</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6319590989397099</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.9653116874067109</v>
+        <v>0.679675936057933</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>1.058546180158544</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.811724799312401</v>
+        <v>9.100853043465349</v>
       </c>
       <c r="C12">
-        <v>1.214031501371522</v>
+        <v>1.454781426528712</v>
       </c>
       <c r="D12">
-        <v>0.2369283377442883</v>
+        <v>0.07104140670439563</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.47471189662951</v>
+        <v>4.484397354979592</v>
       </c>
       <c r="G12">
-        <v>0.0006989249297034792</v>
+        <v>0.0007291080883519025</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6525926674351012</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.9975581630508259</v>
+        <v>0.6988796141726965</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>1.05735031367108</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.765307253326512</v>
+        <v>9.044748960058087</v>
       </c>
       <c r="C13">
-        <v>1.2056445163565</v>
+        <v>1.445799531623209</v>
       </c>
       <c r="D13">
-        <v>0.2354536607824684</v>
+        <v>0.07084045405578365</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.40136661857514</v>
+        <v>4.458549147512628</v>
       </c>
       <c r="G13">
-        <v>0.0006998178311253744</v>
+        <v>0.000729797113839038</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.6481184085614373</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.9905653838568043</v>
+        <v>0.6947263747653949</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>1.057574316641521</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.615025710427005</v>
+        <v>8.862610030676592</v>
       </c>
       <c r="C14">
-        <v>1.178503936336824</v>
+        <v>1.416635241257154</v>
       </c>
       <c r="D14">
-        <v>0.2306855364873996</v>
+        <v>0.07019761826415305</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>11.16395897867397</v>
+        <v>4.374789498120066</v>
       </c>
       <c r="G14">
-        <v>0.0007027215278458867</v>
+        <v>0.0007320430797133621</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6336431528494444</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.9679434129027129</v>
+        <v>0.6812481009796869</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>1.058432840492415</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.523788533239269</v>
+        <v>8.751665153872523</v>
       </c>
       <c r="C15">
-        <v>1.162036276333765</v>
+        <v>1.398866615566817</v>
       </c>
       <c r="D15">
-        <v>0.227795458523687</v>
+        <v>0.06981324991595983</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11.01986907256094</v>
+        <v>4.323886881700162</v>
       </c>
       <c r="G15">
-        <v>0.0007044941481529771</v>
+        <v>0.0007334180895290127</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.624863020236937</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.9542226669744451</v>
+        <v>0.6730420028485042</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>1.059055051046059</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.012367125162768</v>
+        <v>8.124754361952796</v>
       </c>
       <c r="C16">
-        <v>1.069855837022317</v>
+        <v>1.298396330585319</v>
       </c>
       <c r="D16">
-        <v>0.2116609392024742</v>
+        <v>0.06774549587685641</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.21281960043493</v>
+        <v>4.037960755478963</v>
       </c>
       <c r="G16">
-        <v>0.0007145745534896616</v>
+        <v>0.0007412920914939749</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5757577469598161</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.8774947605886894</v>
+        <v>0.6267294430483759</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>1.064018017280034</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.707767055512591</v>
+        <v>7.747426044599933</v>
       </c>
       <c r="C17">
-        <v>1.015049230771183</v>
+        <v>1.237861067986103</v>
       </c>
       <c r="D17">
-        <v>0.2021040565999499</v>
+        <v>0.06658827941658529</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.732697881255149</v>
+        <v>3.867306632972117</v>
       </c>
       <c r="G17">
-        <v>0.0007207028818083661</v>
+        <v>0.0007461228687941917</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5466006678046966</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.8319404760795592</v>
+        <v>0.5989046146142272</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>1.068228770859278</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.535549552561349</v>
+        <v>7.532822726206234</v>
       </c>
       <c r="C18">
-        <v>0.9840909968414735</v>
+        <v>1.20340678962981</v>
       </c>
       <c r="D18">
-        <v>0.1967180767646255</v>
+        <v>0.06596021930763385</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.461441101771612</v>
+        <v>3.770748196495248</v>
       </c>
       <c r="G18">
-        <v>0.0007242122197346483</v>
+        <v>0.0007489035132567613</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5301453942159284</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.8062313707842037</v>
+        <v>0.5830974153163453</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>1.071049309631192</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.477718801993774</v>
+        <v>7.46055680092536</v>
       </c>
       <c r="C19">
-        <v>0.9736996087565331</v>
+        <v>1.19180010658323</v>
       </c>
       <c r="D19">
-        <v>0.1949122696499614</v>
+        <v>0.06575371947978681</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.370386567023928</v>
+        <v>3.738316233033288</v>
       </c>
       <c r="G19">
-        <v>0.0007253981849507905</v>
+        <v>0.0007498455311768869</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5246245504106426</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.7976057325958976</v>
+        <v>0.5777775294209562</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>1.07207009937278</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.739875823522652</v>
+        <v>7.787336995489625</v>
       </c>
       <c r="C20">
-        <v>1.020823418117629</v>
+        <v>1.244266612912327</v>
       </c>
       <c r="D20">
-        <v>0.2031096221634954</v>
+        <v>0.06670750994312158</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.783288083222629</v>
+        <v>3.885304533602977</v>
       </c>
       <c r="G20">
-        <v>0.000720052220613396</v>
+        <v>0.0007456084486500984</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5496710265401319</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.8367374785938893</v>
+        <v>0.6018458354693053</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>1.067738629795642</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.65899457877731</v>
+        <v>8.915977746854082</v>
       </c>
       <c r="C21">
-        <v>1.186442578517244</v>
+        <v>1.425181364182095</v>
       </c>
       <c r="D21">
-        <v>0.2320795832400933</v>
+        <v>0.07038445602221799</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.23341005626099</v>
+        <v>4.399306856338342</v>
       </c>
       <c r="G21">
-        <v>0.0007018699227188479</v>
+        <v>0.0007313835460246051</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6378765956816039</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.9745592565874119</v>
+        <v>0.6851965102971889</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>1.058160396431163</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.295094823978388</v>
+        <v>9.680708315115453</v>
       </c>
       <c r="C22">
-        <v>1.301488205392616</v>
+        <v>1.547575302747589</v>
       </c>
       <c r="D22">
-        <v>0.2523394408845547</v>
+        <v>0.07319837168512322</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>12.23894265315477</v>
+        <v>4.75284229001636</v>
       </c>
       <c r="G22">
-        <v>0.000689732981865264</v>
+        <v>0.0007220605204780778</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6992773546405573</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.070534499278608</v>
+        <v>0.74184539567851</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>1.056129380064831</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.951853902136634</v>
+        <v>9.269781487859518</v>
       </c>
       <c r="C23">
-        <v>1.239362689272525</v>
+        <v>1.481821640397698</v>
       </c>
       <c r="D23">
-        <v>0.2413857794257126</v>
+        <v>0.07165477751601657</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.69617992701916</v>
+        <v>4.562360547658272</v>
       </c>
       <c r="G23">
-        <v>0.0006962404615005832</v>
+        <v>0.0007270412186087133</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.6661093103857993</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.018684444848134</v>
+        <v>0.7113892279440677</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>1.056789734558791</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.725350501951425</v>
+        <v>7.769286061089133</v>
       </c>
       <c r="C24">
-        <v>1.018211210066113</v>
+        <v>1.241369590759632</v>
       </c>
       <c r="D24">
-        <v>0.2026546717281974</v>
+        <v>0.06665349062022585</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.760401532993399</v>
+        <v>3.877162880868156</v>
       </c>
       <c r="G24">
-        <v>0.0007203464266860582</v>
+        <v>0.0007458410070180408</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5482819689807243</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.8345672717460673</v>
+        <v>0.6005155231192418</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>1.067958984591542</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.513671963629804</v>
+        <v>6.241414873474582</v>
       </c>
       <c r="C25">
-        <v>0.8007512289123326</v>
+        <v>0.9955779814038692</v>
       </c>
       <c r="D25">
-        <v>0.1650154203664158</v>
+        <v>0.06266629237565269</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.855252174854712</v>
+        <v>3.197850632259616</v>
       </c>
       <c r="G25">
-        <v>0.0007457903907494811</v>
+        <v>0.0007662175234073199</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,15 +1526,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4329541243810127</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.6543562590007852</v>
+        <v>0.4882862357414268</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.094992003086034</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_6/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.171122763002302</v>
+        <v>2.559291466870548</v>
       </c>
       <c r="C2">
-        <v>0.822439217282863</v>
+        <v>0.7568290025106421</v>
       </c>
       <c r="D2">
-        <v>0.06062697868106426</v>
+        <v>0.03141568234915582</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.734820760383201</v>
+        <v>0.5463393994748316</v>
       </c>
       <c r="G2">
-        <v>0.0007814971724626941</v>
+        <v>0.451135214166456</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2830522480350197</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.161443022714117</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4101934603513371</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.124957263349629</v>
+        <v>0.6278757144756568</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.47056317725071</v>
+        <v>2.22545476867441</v>
       </c>
       <c r="C3">
-        <v>0.7084677320407593</v>
+        <v>0.6607105162439098</v>
       </c>
       <c r="D3">
-        <v>0.05968143107478596</v>
+        <v>0.02791955661937351</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.438490144804604</v>
+        <v>0.4888171515888331</v>
       </c>
       <c r="G3">
-        <v>0.0007921022002280731</v>
+        <v>0.4003486320964953</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2663951303702987</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1580301573422602</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3593807355665319</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.15041792666112</v>
+        <v>0.6312850380654567</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.050059074219575</v>
+        <v>2.020900401083878</v>
       </c>
       <c r="C4">
-        <v>0.6397297777819517</v>
+        <v>0.6018308905326251</v>
       </c>
       <c r="D4">
-        <v>0.05928271409106856</v>
+        <v>0.02576949812689122</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.263577183744673</v>
+        <v>0.4548656189325442</v>
       </c>
       <c r="G4">
-        <v>0.0007987585778785888</v>
+        <v>0.3705050452459915</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2569663522534285</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1567056508779352</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3290221284412382</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.168281871160815</v>
+        <v>0.634307019209146</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.88078528371517</v>
+        <v>1.937614366859009</v>
       </c>
       <c r="C5">
-        <v>0.6119756537712249</v>
+        <v>0.577859415229824</v>
       </c>
       <c r="D5">
-        <v>0.05916158585748121</v>
+        <v>0.0248922979839854</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.193859488817736</v>
+        <v>0.4413461305713255</v>
       </c>
       <c r="G5">
-        <v>0.0008015103793019482</v>
+        <v>0.3586517674911107</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2533117495976285</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1563476089072005</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3168356491393212</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.176081453833916</v>
+        <v>0.6357631467970961</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.852794154427158</v>
+        <v>1.923788131380832</v>
       </c>
       <c r="C6">
-        <v>0.6073811374329523</v>
+        <v>0.573879986616106</v>
       </c>
       <c r="D6">
-        <v>0.05914385141542056</v>
+        <v>0.02474657239386957</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.182371493330635</v>
+        <v>0.4391195339373795</v>
       </c>
       <c r="G6">
-        <v>0.000801969763914347</v>
+        <v>0.3567013490492883</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2527158715571716</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.1562987872509822</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3148225365563491</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.177406846215931</v>
+        <v>0.636018254347043</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.047768170179211</v>
+        <v>2.019776931191331</v>
       </c>
       <c r="C7">
-        <v>0.639354503150571</v>
+        <v>0.6015075273857065</v>
       </c>
       <c r="D7">
-        <v>0.05928091850947226</v>
+        <v>0.02575767230160153</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.262630887032415</v>
+        <v>0.4546820463887329</v>
       </c>
       <c r="G7">
-        <v>0.0007987955269580582</v>
+        <v>0.370343976475894</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2569163218607287</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.1567001020941348</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.32885706175243</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.168385005325646</v>
+        <v>0.6343257588091475</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.927352673718133</v>
+        <v>2.444075111231655</v>
       </c>
       <c r="C8">
-        <v>0.7828493091641064</v>
+        <v>0.7236512280072986</v>
       </c>
       <c r="D8">
-        <v>0.06026041549264249</v>
+        <v>0.03021081812844528</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.63105341404102</v>
+        <v>0.5262047039795732</v>
       </c>
       <c r="G8">
-        <v>0.0007851255302319958</v>
+        <v>0.4333282296093444</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2771349383874053</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.1600987136017338</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3924819521807024</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.133246912755041</v>
+        <v>0.6288530062547295</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.746199703533193</v>
+        <v>3.281201931458497</v>
       </c>
       <c r="C9">
-        <v>1.076928249526389</v>
+        <v>0.9648663288959085</v>
       </c>
       <c r="D9">
-        <v>0.06385164231866014</v>
+        <v>0.03892540651704479</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.420058017910463</v>
+        <v>0.6786501839675765</v>
       </c>
       <c r="G9">
-        <v>0.0007593221972059805</v>
+        <v>0.5688488577510071</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.3237552255923788</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1734642199918035</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5252782331847783</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.084155101866997</v>
+        <v>0.6259168876577235</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.168155947808145</v>
+        <v>3.901982229897783</v>
       </c>
       <c r="C10">
-        <v>1.305355979670935</v>
+        <v>1.144039020575207</v>
       </c>
       <c r="D10">
-        <v>0.06788286483966743</v>
+        <v>0.0453318396843585</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.057660518617496</v>
+        <v>0.8000870400200881</v>
       </c>
       <c r="G10">
-        <v>0.0007407410121137731</v>
+        <v>0.6777993676884506</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.3632045774411949</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.1882357235997993</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6299324418342422</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.063593661799757</v>
+        <v>0.629150054680494</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.841357722600378</v>
+        <v>4.186286264698936</v>
       </c>
       <c r="C11">
-        <v>1.413231772923439</v>
+        <v>1.226199621860985</v>
       </c>
       <c r="D11">
-        <v>0.07012356622622207</v>
+        <v>0.04825089695162177</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.365031820044521</v>
+        <v>0.8578651599212463</v>
       </c>
       <c r="G11">
-        <v>0.0007323060612976616</v>
+        <v>0.729900637193424</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.3825090849776132</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1962398944019803</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.679675936057933</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.058546180158544</v>
+        <v>0.631945251485547</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.100853043465349</v>
+        <v>4.294277262922662</v>
       </c>
       <c r="C12">
-        <v>1.454781426528712</v>
+        <v>1.25742626279748</v>
       </c>
       <c r="D12">
-        <v>0.07104140670439563</v>
+        <v>0.04935729035259584</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.484397354979592</v>
+        <v>0.8801528751599363</v>
       </c>
       <c r="G12">
-        <v>0.0007291080883519025</v>
+        <v>0.7500405751616341</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.3900354838613396</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1994746006980961</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6988796141726965</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.05735031367108</v>
+        <v>0.6332081429241754</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.044748960058087</v>
+        <v>4.271003777160217</v>
       </c>
       <c r="C13">
-        <v>1.445799531623209</v>
+        <v>1.250695626370032</v>
       </c>
       <c r="D13">
-        <v>0.07084045405578365</v>
+        <v>0.04911895820058731</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.458549147512628</v>
+        <v>0.8753339175130037</v>
       </c>
       <c r="G13">
-        <v>0.000729797113839038</v>
+        <v>0.7456840693631932</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.3884045733020969</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1987685701281094</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6947263747653949</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.057574316641521</v>
+        <v>0.6329268313102858</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.862610030676592</v>
+        <v>4.195163766764097</v>
       </c>
       <c r="C14">
-        <v>1.416635241257154</v>
+        <v>1.228766245366216</v>
       </c>
       <c r="D14">
-        <v>0.07019761826415305</v>
+        <v>0.04834189835212044</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.374789498120066</v>
+        <v>0.8596903351886311</v>
       </c>
       <c r="G14">
-        <v>0.0007320430797133621</v>
+        <v>0.7315490660883626</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.3831238278690705</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1965018188642631</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6812481009796869</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.058432840492415</v>
+        <v>0.6320449697292645</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.751665153872523</v>
+        <v>4.148754481455796</v>
       </c>
       <c r="C15">
-        <v>1.398866615566817</v>
+        <v>1.215349369517867</v>
       </c>
       <c r="D15">
-        <v>0.06981324991595983</v>
+        <v>0.04786606863659415</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.323886881700162</v>
+        <v>0.8501627350318728</v>
       </c>
       <c r="G15">
-        <v>0.0007334180895290127</v>
+        <v>0.7229458104788478</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.3799180221660805</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1951404860938162</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6730420028485042</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.059055051046059</v>
+        <v>0.6315318575068289</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.124754361952796</v>
+        <v>3.883445432324095</v>
       </c>
       <c r="C16">
-        <v>1.298396330585319</v>
+        <v>1.138684473444812</v>
       </c>
       <c r="D16">
-        <v>0.06774549587685641</v>
+        <v>0.04514119501796188</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.037960755478963</v>
+        <v>0.7963657892397293</v>
       </c>
       <c r="G16">
-        <v>0.0007412920914939749</v>
+        <v>0.67444929868077</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.3619720641429467</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.187740068495664</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6267294430483759</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.064018017280034</v>
+        <v>0.628995201457613</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.747426044599933</v>
+        <v>3.72121449234595</v>
       </c>
       <c r="C17">
-        <v>1.237861067986103</v>
+        <v>1.091834318228848</v>
       </c>
       <c r="D17">
-        <v>0.06658827941658529</v>
+        <v>0.04347100924388769</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.867306632972117</v>
+        <v>0.7640426031869083</v>
       </c>
       <c r="G17">
-        <v>0.0007461228687941917</v>
+        <v>0.6453795765973638</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.3513250853858665</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1835421847444323</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5989046146142272</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.068228770859278</v>
+        <v>0.6277878554992071</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.532822726206234</v>
+        <v>3.628079439701366</v>
       </c>
       <c r="C18">
-        <v>1.20340678962981</v>
+        <v>1.064947596797396</v>
       </c>
       <c r="D18">
-        <v>0.06596021930763385</v>
+        <v>0.04251078682928267</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.770748196495248</v>
+        <v>0.7456870266385636</v>
       </c>
       <c r="G18">
-        <v>0.0007489035132567613</v>
+        <v>0.6288955165228174</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.3453277767845719</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.181247356039627</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5830974153163453</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.071049309631192</v>
+        <v>0.6272171837298544</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.46055680092536</v>
+        <v>3.596574069625547</v>
       </c>
       <c r="C19">
-        <v>1.19180010658323</v>
+        <v>1.05585397873233</v>
       </c>
       <c r="D19">
-        <v>0.06575371947978681</v>
+        <v>0.04218573547309745</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.738316233033288</v>
+        <v>0.7395113794762835</v>
       </c>
       <c r="G19">
-        <v>0.0007498455311768869</v>
+        <v>0.6233535269463317</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.3433183206174988</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1804903684088686</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5777775294209562</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.07207009937278</v>
+        <v>0.6270448123523238</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.787336995489625</v>
+        <v>3.738465652663479</v>
       </c>
       <c r="C20">
-        <v>1.244266612912327</v>
+        <v>1.096815221666958</v>
       </c>
       <c r="D20">
-        <v>0.06670750994312158</v>
+        <v>0.04364875719826244</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.885304533602977</v>
+        <v>0.7674587450324282</v>
       </c>
       <c r="G20">
-        <v>0.0007456084486500984</v>
+        <v>0.6484493498681871</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.3524452316062963</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.1839765372524624</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6018458354693053</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.067738629795642</v>
+        <v>0.6279034729797104</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.915977746854082</v>
+        <v>4.217430348020457</v>
       </c>
       <c r="C21">
-        <v>1.425181364182095</v>
+        <v>1.235204166606593</v>
       </c>
       <c r="D21">
-        <v>0.07038445602221799</v>
+        <v>0.04857010945929829</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.399306856338342</v>
+        <v>0.864273783950253</v>
       </c>
       <c r="G21">
-        <v>0.0007313835460246051</v>
+        <v>0.735689344034455</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.3846688685638782</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.1971619312215154</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6851965102971889</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.058160396431163</v>
+        <v>0.6322983294584503</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.680708315115453</v>
+        <v>4.532422299202381</v>
       </c>
       <c r="C22">
-        <v>1.547575302747589</v>
+        <v>1.326325770015899</v>
       </c>
       <c r="D22">
-        <v>0.07319837168512322</v>
+        <v>0.0517925631638434</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.75284229001636</v>
+        <v>0.9299514613040714</v>
       </c>
       <c r="G22">
-        <v>0.0007220605204780778</v>
+        <v>0.7951211786198797</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.4070000253519623</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.2069766343610802</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.74184539567851</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.056129380064831</v>
+        <v>0.6363693732298543</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.269781487859518</v>
+        <v>4.364105598432161</v>
       </c>
       <c r="C23">
-        <v>1.481821640397698</v>
+        <v>1.277623397351647</v>
       </c>
       <c r="D23">
-        <v>0.07165477751601657</v>
+        <v>0.05007200560221037</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.562360547658272</v>
+        <v>0.8946627032363779</v>
       </c>
       <c r="G23">
-        <v>0.0007270412186087133</v>
+        <v>0.7631643223214013</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.3949578109704106</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.2016221026738698</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.7113892279440677</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.056789734558791</v>
+        <v>0.6340819900972292</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.769286061089133</v>
+        <v>3.730665990949717</v>
       </c>
       <c r="C24">
-        <v>1.241369590759632</v>
+        <v>1.094563207036458</v>
       </c>
       <c r="D24">
-        <v>0.06665349062022585</v>
+        <v>0.04356839740486862</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.877162880868156</v>
+        <v>0.765913602099161</v>
       </c>
       <c r="G24">
-        <v>0.0007458410070180408</v>
+        <v>0.6470607969841637</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.3519384295005352</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.1837797985171363</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6005155231192418</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.067958984591542</v>
+        <v>0.6278508188480743</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.241414873474582</v>
+        <v>3.053932684038443</v>
       </c>
       <c r="C25">
-        <v>0.9955779814038692</v>
+        <v>0.8993397283558977</v>
       </c>
       <c r="D25">
-        <v>0.06266629237565269</v>
+        <v>0.03656837296726678</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.197850632259616</v>
+        <v>0.6359066997972889</v>
       </c>
       <c r="G25">
-        <v>0.0007662175234073199</v>
+        <v>0.5306976756367305</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.3103033288079047</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1690454262853862</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4882862357414268</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.094992003086034</v>
+        <v>0.6258135945527101</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_6/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.559291466870548</v>
+        <v>0.8234243614228944</v>
       </c>
       <c r="C2">
-        <v>0.7568290025106421</v>
+        <v>0.2390411731991264</v>
       </c>
       <c r="D2">
-        <v>0.03141568234915582</v>
+        <v>0.01114603848917994</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5463393994748316</v>
+        <v>0.4783276659663898</v>
       </c>
       <c r="G2">
-        <v>0.451135214166456</v>
+        <v>0.3296655200874881</v>
       </c>
       <c r="H2">
-        <v>0.2830522480350197</v>
+        <v>0.4595714176470125</v>
       </c>
       <c r="I2">
-        <v>0.161443022714117</v>
+        <v>0.3002845041730531</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6278757144756568</v>
+        <v>0.8190571190906795</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.22545476867441</v>
+        <v>0.7214998676118967</v>
       </c>
       <c r="C3">
-        <v>0.6607105162439098</v>
+        <v>0.2092395276970649</v>
       </c>
       <c r="D3">
-        <v>0.02791955661937351</v>
+        <v>0.009965053555823999</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4888171515888331</v>
+        <v>0.4689669770731228</v>
       </c>
       <c r="G3">
-        <v>0.4003486320964953</v>
+        <v>0.320977232158981</v>
       </c>
       <c r="H3">
-        <v>0.2663951303702987</v>
+        <v>0.460325805726427</v>
       </c>
       <c r="I3">
-        <v>0.1580301573422602</v>
+        <v>0.3038796859177353</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6312850380654567</v>
+        <v>0.8220607328432337</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.020900401083878</v>
+        <v>0.6588221578764717</v>
       </c>
       <c r="C4">
-        <v>0.6018308905326251</v>
+        <v>0.1908649908417601</v>
       </c>
       <c r="D4">
-        <v>0.02576949812689122</v>
+        <v>0.009236407118688561</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4548656189325442</v>
+        <v>0.4636780216299954</v>
       </c>
       <c r="G4">
-        <v>0.3705050452459915</v>
+        <v>0.3160259442002484</v>
       </c>
       <c r="H4">
-        <v>0.2569663522534285</v>
+        <v>0.4611342259807572</v>
       </c>
       <c r="I4">
-        <v>0.1567056508779352</v>
+        <v>0.3063864754026007</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.634307019209146</v>
+        <v>0.8242948709632074</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.937614366859009</v>
+        <v>0.6332575624831804</v>
       </c>
       <c r="C5">
-        <v>0.577859415229824</v>
+        <v>0.1833582503887783</v>
       </c>
       <c r="D5">
-        <v>0.0248922979839854</v>
+        <v>0.008938616136124011</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4413461305713255</v>
+        <v>0.4616375848263203</v>
       </c>
       <c r="G5">
-        <v>0.3586517674911107</v>
+        <v>0.3141040627619418</v>
       </c>
       <c r="H5">
-        <v>0.2533117495976285</v>
+        <v>0.4615502990809119</v>
       </c>
       <c r="I5">
-        <v>0.1563476089072005</v>
+        <v>0.3074830104067452</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6357631467970961</v>
+        <v>0.8253034834620152</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.923788131380832</v>
+        <v>0.6290112301303736</v>
       </c>
       <c r="C6">
-        <v>0.573879986616106</v>
+        <v>0.1821106220582749</v>
       </c>
       <c r="D6">
-        <v>0.02474657239386957</v>
+        <v>0.008889116799458918</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4391195339373795</v>
+        <v>0.4613056956842456</v>
       </c>
       <c r="G6">
-        <v>0.3567013490492883</v>
+        <v>0.3137907051563076</v>
       </c>
       <c r="H6">
-        <v>0.2527158715571716</v>
+        <v>0.4616246151814209</v>
       </c>
       <c r="I6">
-        <v>0.1562987872509822</v>
+        <v>0.3076696109341626</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.636018254347043</v>
+        <v>0.8254768969764399</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.019776931191331</v>
+        <v>0.6584774760963228</v>
       </c>
       <c r="C7">
-        <v>0.6015075273857065</v>
+        <v>0.1907638288517433</v>
       </c>
       <c r="D7">
-        <v>0.02575767230160153</v>
+        <v>0.009232394464234517</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4546820463887329</v>
+        <v>0.4636500391369012</v>
       </c>
       <c r="G7">
-        <v>0.370343976475894</v>
+        <v>0.3159996378911529</v>
       </c>
       <c r="H7">
-        <v>0.2569163218607287</v>
+        <v>0.4611394867367977</v>
       </c>
       <c r="I7">
-        <v>0.1567001020941348</v>
+        <v>0.3064009603547255</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6343257588091475</v>
+        <v>0.8243080757400563</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.444075111231655</v>
+        <v>0.7883012982027253</v>
       </c>
       <c r="C8">
-        <v>0.7236512280072986</v>
+        <v>0.2287814904606478</v>
       </c>
       <c r="D8">
-        <v>0.03021081812844528</v>
+        <v>0.01073957805147785</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5262047039795732</v>
+        <v>0.4750046546502773</v>
       </c>
       <c r="G8">
-        <v>0.4333282296093444</v>
+        <v>0.3265898749196054</v>
       </c>
       <c r="H8">
-        <v>0.2771349383874053</v>
+        <v>0.4597597736787407</v>
       </c>
       <c r="I8">
-        <v>0.1600987136017338</v>
+        <v>0.3014618326369245</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6288530062547295</v>
+        <v>0.8200119195486195</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.281201931458497</v>
+        <v>1.04208900937823</v>
       </c>
       <c r="C9">
-        <v>0.9648663288959085</v>
+        <v>0.3027243139620452</v>
       </c>
       <c r="D9">
-        <v>0.03892540651704479</v>
+        <v>0.01366639802007086</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6786501839675765</v>
+        <v>0.5009315587484622</v>
       </c>
       <c r="G9">
-        <v>0.5688488577510071</v>
+        <v>0.3504271575938844</v>
       </c>
       <c r="H9">
-        <v>0.3237552255923788</v>
+        <v>0.4598018282496952</v>
       </c>
       <c r="I9">
-        <v>0.1734642199918035</v>
+        <v>0.294163625853443</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6259168876577235</v>
+        <v>0.814675716803805</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.901982229897783</v>
+        <v>1.228029407099825</v>
       </c>
       <c r="C10">
-        <v>1.144039020575207</v>
+        <v>0.3566768823969824</v>
       </c>
       <c r="D10">
-        <v>0.0453318396843585</v>
+        <v>0.01579825279128499</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8000870400200881</v>
+        <v>0.522245074237091</v>
       </c>
       <c r="G10">
-        <v>0.6777993676884506</v>
+        <v>0.3698529550440668</v>
       </c>
       <c r="H10">
-        <v>0.3632045774411949</v>
+        <v>0.4615204330958989</v>
       </c>
       <c r="I10">
-        <v>0.1882357235997993</v>
+        <v>0.2902742258208022</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.629150054680494</v>
+        <v>0.8126323559473292</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.186286264698936</v>
+        <v>1.312500563948618</v>
       </c>
       <c r="C11">
-        <v>1.226199621860985</v>
+        <v>0.3811402683526808</v>
       </c>
       <c r="D11">
-        <v>0.04825089695162177</v>
+        <v>0.01676389016963498</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8578651599212463</v>
+        <v>0.5324403204424186</v>
       </c>
       <c r="G11">
-        <v>0.729900637193424</v>
+        <v>0.3791144895305223</v>
       </c>
       <c r="H11">
-        <v>0.3825090849776132</v>
+        <v>0.4626715298432487</v>
       </c>
       <c r="I11">
-        <v>0.1962398944019803</v>
+        <v>0.2888282964741897</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.631945251485547</v>
+        <v>0.8121093590750235</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.294277262922662</v>
+        <v>1.344470306865276</v>
       </c>
       <c r="C12">
-        <v>1.25742626279748</v>
+        <v>0.3903923048377465</v>
       </c>
       <c r="D12">
-        <v>0.04935729035259584</v>
+        <v>0.01712893466666543</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8801528751599363</v>
+        <v>0.5363733735614886</v>
       </c>
       <c r="G12">
-        <v>0.7500405751616341</v>
+        <v>0.3826833276893353</v>
       </c>
       <c r="H12">
-        <v>0.3900354838613396</v>
+        <v>0.4631607347953519</v>
       </c>
       <c r="I12">
-        <v>0.1994746006980961</v>
+        <v>0.288327562248373</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6332081429241754</v>
+        <v>0.811969683973885</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.271003777160217</v>
+        <v>1.337585855576151</v>
       </c>
       <c r="C13">
-        <v>1.250695626370032</v>
+        <v>0.3884002379398339</v>
       </c>
       <c r="D13">
-        <v>0.04911895820058731</v>
+        <v>0.01705034382197113</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8753339175130037</v>
+        <v>0.5355230953093866</v>
       </c>
       <c r="G13">
-        <v>0.7456840693631932</v>
+        <v>0.3819119605190764</v>
       </c>
       <c r="H13">
-        <v>0.3884045733020969</v>
+        <v>0.4630530015227805</v>
       </c>
       <c r="I13">
-        <v>0.1987685701281094</v>
+        <v>0.2884333176540146</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6329268313102858</v>
+        <v>0.8119971707014457</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.195163766764097</v>
+        <v>1.315131094826086</v>
       </c>
       <c r="C14">
-        <v>1.228766245366216</v>
+        <v>0.3819016750770743</v>
       </c>
       <c r="D14">
-        <v>0.04834189835212044</v>
+        <v>0.01679393519172834</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.8596903351886311</v>
+        <v>0.5327624425936932</v>
       </c>
       <c r="G14">
-        <v>0.7315490660883626</v>
+        <v>0.3794068598903522</v>
       </c>
       <c r="H14">
-        <v>0.3831238278690705</v>
+        <v>0.4627107074479397</v>
       </c>
       <c r="I14">
-        <v>0.1965018188642631</v>
+        <v>0.2887861609146896</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6320449697292645</v>
+        <v>0.8120966985284355</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.148754481455796</v>
+        <v>1.301374569848804</v>
       </c>
       <c r="C15">
-        <v>1.215349369517867</v>
+        <v>0.377919585106838</v>
       </c>
       <c r="D15">
-        <v>0.04786606863659415</v>
+        <v>0.01663679586290101</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8501627350318728</v>
+        <v>0.5310808977181125</v>
       </c>
       <c r="G15">
-        <v>0.7229458104788478</v>
+        <v>0.3778804668392297</v>
       </c>
       <c r="H15">
-        <v>0.3799180221660805</v>
+        <v>0.4625079910276497</v>
       </c>
       <c r="I15">
-        <v>0.1951404860938162</v>
+        <v>0.289008392453983</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6315318575068289</v>
+        <v>0.8121652615242141</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.883445432324095</v>
+        <v>1.222506616238945</v>
       </c>
       <c r="C16">
-        <v>1.138684473444812</v>
+        <v>0.3550765152811266</v>
       </c>
       <c r="D16">
-        <v>0.04514119501796188</v>
+        <v>0.01573506046502615</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7963657892397293</v>
+        <v>0.521588886460691</v>
       </c>
       <c r="G16">
-        <v>0.67444929868077</v>
+        <v>0.3692562910051294</v>
       </c>
       <c r="H16">
-        <v>0.3619720641429467</v>
+        <v>0.4614526549286069</v>
       </c>
       <c r="I16">
-        <v>0.187740068495664</v>
+        <v>0.2903752541000379</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.628995201457613</v>
+        <v>0.8126747080203103</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.72121449234595</v>
+        <v>1.174093576873133</v>
       </c>
       <c r="C17">
-        <v>1.091834318228848</v>
+        <v>0.3410424042062346</v>
       </c>
       <c r="D17">
-        <v>0.04347100924388769</v>
+        <v>0.01518079387032856</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7640426031869083</v>
+        <v>0.515894158716506</v>
       </c>
       <c r="G17">
-        <v>0.6453795765973638</v>
+        <v>0.3640748502167099</v>
       </c>
       <c r="H17">
-        <v>0.3513250853858665</v>
+        <v>0.4608999717792557</v>
       </c>
       <c r="I17">
-        <v>0.1835421847444323</v>
+        <v>0.2912968224636501</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6277878554992071</v>
+        <v>0.8130912972097519</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.628079439701366</v>
+        <v>1.14623701531724</v>
       </c>
       <c r="C18">
-        <v>1.064947596797396</v>
+        <v>0.3329628468440831</v>
       </c>
       <c r="D18">
-        <v>0.04251078682928267</v>
+        <v>0.01486160481321974</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7456870266385636</v>
+        <v>0.512665699422783</v>
       </c>
       <c r="G18">
-        <v>0.6288955165228174</v>
+        <v>0.3611345540391682</v>
       </c>
       <c r="H18">
-        <v>0.3453277767845719</v>
+        <v>0.4606168305178926</v>
       </c>
       <c r="I18">
-        <v>0.181247356039627</v>
+        <v>0.2918573037892394</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6272171837298544</v>
+        <v>0.8133691784282462</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.596574069625547</v>
+        <v>1.136803469180052</v>
       </c>
       <c r="C19">
-        <v>1.05585397873233</v>
+        <v>0.3302259649711345</v>
       </c>
       <c r="D19">
-        <v>0.04218573547309745</v>
+        <v>0.01475346671015387</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7395113794762835</v>
+        <v>0.5115806555054689</v>
       </c>
       <c r="G19">
-        <v>0.6233535269463317</v>
+        <v>0.360145859244497</v>
       </c>
       <c r="H19">
-        <v>0.3433183206174988</v>
+        <v>0.4605269254096527</v>
       </c>
       <c r="I19">
-        <v>0.1804903684088686</v>
+        <v>0.2920522883892431</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6270448123523238</v>
+        <v>0.8134698399241103</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.738465652663479</v>
+        <v>1.179248340078004</v>
       </c>
       <c r="C20">
-        <v>1.096815221666958</v>
+        <v>0.3425371379676676</v>
       </c>
       <c r="D20">
-        <v>0.04364875719826244</v>
+        <v>0.01523983698849207</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7674587450324282</v>
+        <v>0.5164955045920152</v>
       </c>
       <c r="G20">
-        <v>0.6484493498681871</v>
+        <v>0.3646222860823514</v>
       </c>
       <c r="H20">
-        <v>0.3524452316062963</v>
+        <v>0.4609552081215185</v>
       </c>
       <c r="I20">
-        <v>0.1839765372524624</v>
+        <v>0.2911955694045645</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6279034729797104</v>
+        <v>0.8130429904120575</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.217430348020457</v>
+        <v>1.321727091338687</v>
       </c>
       <c r="C21">
-        <v>1.235204166606593</v>
+        <v>0.3838107803078969</v>
       </c>
       <c r="D21">
-        <v>0.04857010945929829</v>
+        <v>0.01686926567759173</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.864273783950253</v>
+        <v>0.5335713461754921</v>
       </c>
       <c r="G21">
-        <v>0.735689344034455</v>
+        <v>0.3801409892163576</v>
       </c>
       <c r="H21">
-        <v>0.3846688685638782</v>
+        <v>0.462809799068836</v>
       </c>
       <c r="I21">
-        <v>0.1971619312215154</v>
+        <v>0.2886812495032203</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6322983294584503</v>
+        <v>0.8120658812474915</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.532422299202381</v>
+        <v>1.414741732651294</v>
       </c>
       <c r="C22">
-        <v>1.326325770015899</v>
+        <v>0.4107170925403807</v>
       </c>
       <c r="D22">
-        <v>0.0517925631638434</v>
+        <v>0.01793055834883717</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.9299514613040714</v>
+        <v>0.5451532440643803</v>
       </c>
       <c r="G22">
-        <v>0.7951211786198797</v>
+        <v>0.3906432636472488</v>
       </c>
       <c r="H22">
-        <v>0.4070000253519623</v>
+        <v>0.4643327061128133</v>
       </c>
       <c r="I22">
-        <v>0.2069766343610802</v>
+        <v>0.2873109700939622</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6363693732298543</v>
+        <v>0.8117674869457403</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.364105598432161</v>
+        <v>1.365107945887814</v>
       </c>
       <c r="C23">
-        <v>1.277623397351647</v>
+        <v>0.3963630202895843</v>
       </c>
       <c r="D23">
-        <v>0.05007200560221037</v>
+        <v>0.01736446682171788</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8946627032363779</v>
+        <v>0.538933006470657</v>
       </c>
       <c r="G23">
-        <v>0.7631643223214013</v>
+        <v>0.3850048619195405</v>
       </c>
       <c r="H23">
-        <v>0.3949578109704106</v>
+        <v>0.4634913935387743</v>
       </c>
       <c r="I23">
-        <v>0.2016221026738698</v>
+        <v>0.2880172356561914</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6340819900972292</v>
+        <v>0.8118956443212966</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.730665990949717</v>
+        <v>1.176917943994113</v>
       </c>
       <c r="C24">
-        <v>1.094563207036458</v>
+        <v>0.341861403583664</v>
       </c>
       <c r="D24">
-        <v>0.04356839740486862</v>
+        <v>0.01521314525546558</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.765913602099161</v>
+        <v>0.5162234943808528</v>
       </c>
       <c r="G24">
-        <v>0.6470607969841637</v>
+        <v>0.364374670192646</v>
       </c>
       <c r="H24">
-        <v>0.3519384295005352</v>
+        <v>0.4609301279958231</v>
       </c>
       <c r="I24">
-        <v>0.1837797985171363</v>
+        <v>0.2912412504321935</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6278508188480743</v>
+        <v>0.8130647103585318</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.053932684038443</v>
+        <v>0.9735212901853743</v>
       </c>
       <c r="C25">
-        <v>0.8993397283558977</v>
+        <v>0.2827862561440497</v>
       </c>
       <c r="D25">
-        <v>0.03656837296726678</v>
+        <v>0.01287779329090455</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6359066997972889</v>
+        <v>0.4935222974732341</v>
       </c>
       <c r="G25">
-        <v>0.5306976756367305</v>
+        <v>0.3436456421788563</v>
       </c>
       <c r="H25">
-        <v>0.3103033288079047</v>
+        <v>0.4594949878401451</v>
       </c>
       <c r="I25">
-        <v>0.1690454262853862</v>
+        <v>0.2958806213648835</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6258135945527101</v>
+        <v>0.8157892647763134</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_6/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8234243614228944</v>
+        <v>2.559291466870377</v>
       </c>
       <c r="C2">
-        <v>0.2390411731991264</v>
+        <v>0.7568290025104432</v>
       </c>
       <c r="D2">
-        <v>0.01114603848917994</v>
+        <v>0.03141568234921976</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4783276659663898</v>
+        <v>0.5463393994748316</v>
       </c>
       <c r="G2">
-        <v>0.3296655200874881</v>
+        <v>0.4511352141664275</v>
       </c>
       <c r="H2">
-        <v>0.4595714176470125</v>
+        <v>0.283052248034906</v>
       </c>
       <c r="I2">
-        <v>0.3002845041730531</v>
+        <v>0.1614430227141277</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8190571190906795</v>
+        <v>0.6278757144756426</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7214998676118967</v>
+        <v>2.225454768674467</v>
       </c>
       <c r="C3">
-        <v>0.2092395276970649</v>
+        <v>0.6607105162437108</v>
       </c>
       <c r="D3">
-        <v>0.009965053555823999</v>
+        <v>0.02791955661953693</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4689669770731228</v>
+        <v>0.4888171515888331</v>
       </c>
       <c r="G3">
-        <v>0.320977232158981</v>
+        <v>0.4003486320964953</v>
       </c>
       <c r="H3">
-        <v>0.460325805726427</v>
+        <v>0.2663951303702987</v>
       </c>
       <c r="I3">
-        <v>0.3038796859177353</v>
+        <v>0.1580301573422602</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8220607328432337</v>
+        <v>0.6312850380655206</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6588221578764717</v>
+        <v>2.020900401083878</v>
       </c>
       <c r="C4">
-        <v>0.1908649908417601</v>
+        <v>0.6018308905326251</v>
       </c>
       <c r="D4">
-        <v>0.009236407118688561</v>
+        <v>0.02576949812700136</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4636780216299954</v>
+        <v>0.4548656189325584</v>
       </c>
       <c r="G4">
-        <v>0.3160259442002484</v>
+        <v>0.3705050452460483</v>
       </c>
       <c r="H4">
-        <v>0.4611342259807572</v>
+        <v>0.2569663522534285</v>
       </c>
       <c r="I4">
-        <v>0.3063864754026007</v>
+        <v>0.1567056508779316</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8242948709632074</v>
+        <v>0.634307019209146</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6332575624831804</v>
+        <v>1.937614366859037</v>
       </c>
       <c r="C5">
-        <v>0.1833582503887783</v>
+        <v>0.5778594152299092</v>
       </c>
       <c r="D5">
-        <v>0.008938616136124011</v>
+        <v>0.02489229798409553</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4616375848263203</v>
+        <v>0.4413461305713113</v>
       </c>
       <c r="G5">
-        <v>0.3141040627619418</v>
+        <v>0.3586517674910397</v>
       </c>
       <c r="H5">
-        <v>0.4615502990809119</v>
+        <v>0.2533117495976285</v>
       </c>
       <c r="I5">
-        <v>0.3074830104067452</v>
+        <v>0.1563476089072005</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8253034834620152</v>
+        <v>0.635763146797089</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6290112301303736</v>
+        <v>1.923788131380832</v>
       </c>
       <c r="C6">
-        <v>0.1821106220582749</v>
+        <v>0.573879986616106</v>
       </c>
       <c r="D6">
-        <v>0.008889116799458918</v>
+        <v>0.02474657239385536</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4613056956842456</v>
+        <v>0.4391195339373937</v>
       </c>
       <c r="G6">
-        <v>0.3137907051563076</v>
+        <v>0.3567013490493025</v>
       </c>
       <c r="H6">
-        <v>0.4616246151814209</v>
+        <v>0.2527158715572853</v>
       </c>
       <c r="I6">
-        <v>0.3076696109341626</v>
+        <v>0.1562987872509822</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8254768969764399</v>
+        <v>0.6360182543470287</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6584774760963228</v>
+        <v>2.019776931191245</v>
       </c>
       <c r="C7">
-        <v>0.1907638288517433</v>
+        <v>0.6015075273857065</v>
       </c>
       <c r="D7">
-        <v>0.009232394464234517</v>
+        <v>0.02575767230172588</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4636500391369012</v>
+        <v>0.4546820463887329</v>
       </c>
       <c r="G7">
-        <v>0.3159996378911529</v>
+        <v>0.3703439764759082</v>
       </c>
       <c r="H7">
-        <v>0.4611394867367977</v>
+        <v>0.2569163218607287</v>
       </c>
       <c r="I7">
-        <v>0.3064009603547255</v>
+        <v>0.1567001020941348</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8243080757400563</v>
+        <v>0.6343257588091475</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7883012982027253</v>
+        <v>2.444075111231655</v>
       </c>
       <c r="C8">
-        <v>0.2287814904606478</v>
+        <v>0.7236512280072986</v>
       </c>
       <c r="D8">
-        <v>0.01073957805147785</v>
+        <v>0.03021081812865845</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4750046546502773</v>
+        <v>0.5262047039795874</v>
       </c>
       <c r="G8">
-        <v>0.3265898749196054</v>
+        <v>0.4333282296093586</v>
       </c>
       <c r="H8">
-        <v>0.4597597736787407</v>
+        <v>0.2771349383874053</v>
       </c>
       <c r="I8">
-        <v>0.3014618326369245</v>
+        <v>0.1600987136017409</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8200119195486195</v>
+        <v>0.6288530062547295</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.04208900937823</v>
+        <v>3.281201931458384</v>
       </c>
       <c r="C9">
-        <v>0.3027243139620452</v>
+        <v>0.9648663288959369</v>
       </c>
       <c r="D9">
-        <v>0.01366639802007086</v>
+        <v>0.03892540651721532</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5009315587484622</v>
+        <v>0.6786501839676049</v>
       </c>
       <c r="G9">
-        <v>0.3504271575938844</v>
+        <v>0.5688488577509077</v>
       </c>
       <c r="H9">
-        <v>0.4598018282496952</v>
+        <v>0.323755225592393</v>
       </c>
       <c r="I9">
-        <v>0.294163625853443</v>
+        <v>0.1734642199918071</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.814675716803805</v>
+        <v>0.6259168876577235</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.228029407099825</v>
+        <v>3.901982229897726</v>
       </c>
       <c r="C10">
-        <v>0.3566768823969824</v>
+        <v>1.14403902057478</v>
       </c>
       <c r="D10">
-        <v>0.01579825279128499</v>
+        <v>0.0453318396842306</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.522245074237091</v>
+        <v>0.8000870400200881</v>
       </c>
       <c r="G10">
-        <v>0.3698529550440668</v>
+        <v>0.677799367688479</v>
       </c>
       <c r="H10">
-        <v>0.4615204330958989</v>
+        <v>0.3632045774411807</v>
       </c>
       <c r="I10">
-        <v>0.2902742258208022</v>
+        <v>0.1882357235997816</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8126323559473292</v>
+        <v>0.629150054680494</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.312500563948618</v>
+        <v>4.186286264699049</v>
       </c>
       <c r="C11">
-        <v>0.3811402683526808</v>
+        <v>1.226199621860985</v>
       </c>
       <c r="D11">
-        <v>0.01676389016963498</v>
+        <v>0.04825089695167151</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5324403204424186</v>
+        <v>0.8578651599212321</v>
       </c>
       <c r="G11">
-        <v>0.3791144895305223</v>
+        <v>0.7299006371933956</v>
       </c>
       <c r="H11">
-        <v>0.4626715298432487</v>
+        <v>0.3825090849776274</v>
       </c>
       <c r="I11">
-        <v>0.2888282964741897</v>
+        <v>0.1962398944019803</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8121093590750235</v>
+        <v>0.6319452514855328</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.344470306865276</v>
+        <v>4.294277262922492</v>
       </c>
       <c r="C12">
-        <v>0.3903923048377465</v>
+        <v>1.257426262797537</v>
       </c>
       <c r="D12">
-        <v>0.01712893466666543</v>
+        <v>0.04935729035263847</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5363733735614886</v>
+        <v>0.8801528751599506</v>
       </c>
       <c r="G12">
-        <v>0.3826833276893353</v>
+        <v>0.7500405751616057</v>
       </c>
       <c r="H12">
-        <v>0.4631607347953519</v>
+        <v>0.3900354838614533</v>
       </c>
       <c r="I12">
-        <v>0.288327562248373</v>
+        <v>0.199474600698089</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.811969683973885</v>
+        <v>0.6332081429241185</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.337585855576151</v>
+        <v>4.271003777160274</v>
       </c>
       <c r="C13">
-        <v>0.3884002379398339</v>
+        <v>1.250695626370032</v>
       </c>
       <c r="D13">
-        <v>0.01705034382197113</v>
+        <v>0.04911895820059442</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5355230953093866</v>
+        <v>0.8753339175130037</v>
       </c>
       <c r="G13">
-        <v>0.3819119605190764</v>
+        <v>0.745684069363179</v>
       </c>
       <c r="H13">
-        <v>0.4630530015227805</v>
+        <v>0.3884045733022106</v>
       </c>
       <c r="I13">
-        <v>0.2884333176540146</v>
+        <v>0.1987685701281094</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8119971707014457</v>
+        <v>0.6329268313102716</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.315131094826086</v>
+        <v>4.19516376676404</v>
       </c>
       <c r="C14">
-        <v>0.3819016750770743</v>
+        <v>1.228766245366046</v>
       </c>
       <c r="D14">
-        <v>0.01679393519172834</v>
+        <v>0.0483418983519357</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5327624425936932</v>
+        <v>0.8596903351886311</v>
       </c>
       <c r="G14">
-        <v>0.3794068598903522</v>
+        <v>0.7315490660883768</v>
       </c>
       <c r="H14">
-        <v>0.4627107074479397</v>
+        <v>0.3831238278690705</v>
       </c>
       <c r="I14">
-        <v>0.2887861609146896</v>
+        <v>0.1965018188642773</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8120966985284355</v>
+        <v>0.6320449697292645</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.301374569848804</v>
+        <v>4.148754481455626</v>
       </c>
       <c r="C15">
-        <v>0.377919585106838</v>
+        <v>1.215349369517753</v>
       </c>
       <c r="D15">
-        <v>0.01663679586290101</v>
+        <v>0.04786606863660126</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5310808977181125</v>
+        <v>0.850162735031887</v>
       </c>
       <c r="G15">
-        <v>0.3778804668392297</v>
+        <v>0.7229458104788336</v>
       </c>
       <c r="H15">
-        <v>0.4625079910276497</v>
+        <v>0.3799180221660947</v>
       </c>
       <c r="I15">
-        <v>0.289008392453983</v>
+        <v>0.1951404860938162</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8121652615242141</v>
+        <v>0.6315318575068289</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.222506616238945</v>
+        <v>3.883445432324265</v>
       </c>
       <c r="C16">
-        <v>0.3550765152811266</v>
+        <v>1.138684473444869</v>
       </c>
       <c r="D16">
-        <v>0.01573506046502615</v>
+        <v>0.04514119501807556</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.521588886460691</v>
+        <v>0.7963657892397293</v>
       </c>
       <c r="G16">
-        <v>0.3692562910051294</v>
+        <v>0.6744492986808126</v>
       </c>
       <c r="H16">
-        <v>0.4614526549286069</v>
+        <v>0.3619720641428188</v>
       </c>
       <c r="I16">
-        <v>0.2903752541000379</v>
+        <v>0.1877400684956463</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8126747080203103</v>
+        <v>0.628995201457613</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.174093576873133</v>
+        <v>3.721214492345837</v>
       </c>
       <c r="C17">
-        <v>0.3410424042062346</v>
+        <v>1.09183431822882</v>
       </c>
       <c r="D17">
-        <v>0.01518079387032856</v>
+        <v>0.04347100924388769</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.515894158716506</v>
+        <v>0.7640426031869083</v>
       </c>
       <c r="G17">
-        <v>0.3640748502167099</v>
+        <v>0.6453795765974206</v>
       </c>
       <c r="H17">
-        <v>0.4608999717792557</v>
+        <v>0.3513250853857386</v>
       </c>
       <c r="I17">
-        <v>0.2912968224636501</v>
+        <v>0.1835421847444287</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8130912972097519</v>
+        <v>0.6277878554991929</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.14623701531724</v>
+        <v>3.628079439701537</v>
       </c>
       <c r="C18">
-        <v>0.3329628468440831</v>
+        <v>1.064947596797111</v>
       </c>
       <c r="D18">
-        <v>0.01486160481321974</v>
+        <v>0.04251078682943898</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.512665699422783</v>
+        <v>0.7456870266385494</v>
       </c>
       <c r="G18">
-        <v>0.3611345540391682</v>
+        <v>0.62889551652286</v>
       </c>
       <c r="H18">
-        <v>0.4606168305178926</v>
+        <v>0.345327776784444</v>
       </c>
       <c r="I18">
-        <v>0.2918573037892394</v>
+        <v>0.181247356039627</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8133691784282462</v>
+        <v>0.627217183729897</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.136803469180052</v>
+        <v>3.59657406962566</v>
       </c>
       <c r="C19">
-        <v>0.3302259649711345</v>
+        <v>1.055853978732301</v>
       </c>
       <c r="D19">
-        <v>0.01475346671015387</v>
+        <v>0.04218573547309745</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5115806555054689</v>
+        <v>0.7395113794762835</v>
       </c>
       <c r="G19">
-        <v>0.360145859244497</v>
+        <v>0.6233535269463317</v>
       </c>
       <c r="H19">
-        <v>0.4605269254096527</v>
+        <v>0.3433183206174988</v>
       </c>
       <c r="I19">
-        <v>0.2920522883892431</v>
+        <v>0.180490368408865</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8134698399241103</v>
+        <v>0.6270448123522669</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.179248340078004</v>
+        <v>3.738465652663479</v>
       </c>
       <c r="C20">
-        <v>0.3425371379676676</v>
+        <v>1.096815221667299</v>
       </c>
       <c r="D20">
-        <v>0.01523983698849207</v>
+        <v>0.04364875719831218</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5164955045920152</v>
+        <v>0.7674587450324424</v>
       </c>
       <c r="G20">
-        <v>0.3646222860823514</v>
+        <v>0.648449349868244</v>
       </c>
       <c r="H20">
-        <v>0.4609552081215185</v>
+        <v>0.3524452316061684</v>
       </c>
       <c r="I20">
-        <v>0.2911955694045645</v>
+        <v>0.1839765372524731</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8130429904120575</v>
+        <v>0.627903472979753</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.321727091338687</v>
+        <v>4.2174303480204</v>
       </c>
       <c r="C21">
-        <v>0.3838107803078969</v>
+        <v>1.235204166606479</v>
       </c>
       <c r="D21">
-        <v>0.01686926567759173</v>
+        <v>0.04857010945918461</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5335713461754921</v>
+        <v>0.8642737839502672</v>
       </c>
       <c r="G21">
-        <v>0.3801409892163576</v>
+        <v>0.7356893440345118</v>
       </c>
       <c r="H21">
-        <v>0.462809799068836</v>
+        <v>0.3846688685638924</v>
       </c>
       <c r="I21">
-        <v>0.2886812495032203</v>
+        <v>0.1971619312215331</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8120658812474915</v>
+        <v>0.6322983294584503</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.414741732651294</v>
+        <v>4.532422299202551</v>
       </c>
       <c r="C22">
-        <v>0.4107170925403807</v>
+        <v>1.326325770015899</v>
       </c>
       <c r="D22">
-        <v>0.01793055834883717</v>
+        <v>0.05179256316394287</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5451532440643803</v>
+        <v>0.9299514613040998</v>
       </c>
       <c r="G22">
-        <v>0.3906432636472488</v>
+        <v>0.7951211786199224</v>
       </c>
       <c r="H22">
-        <v>0.4643327061128133</v>
+        <v>0.4070000253519765</v>
       </c>
       <c r="I22">
-        <v>0.2873109700939622</v>
+        <v>0.2069766343610766</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8117674869457403</v>
+        <v>0.6363693732298543</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.365107945887814</v>
+        <v>4.364105598432161</v>
       </c>
       <c r="C23">
-        <v>0.3963630202895843</v>
+        <v>1.277623397351817</v>
       </c>
       <c r="D23">
-        <v>0.01736446682171788</v>
+        <v>0.05007200560214642</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.538933006470657</v>
+        <v>0.8946627032363779</v>
       </c>
       <c r="G23">
-        <v>0.3850048619195405</v>
+        <v>0.7631643223215292</v>
       </c>
       <c r="H23">
-        <v>0.4634913935387743</v>
+        <v>0.3949578109704248</v>
       </c>
       <c r="I23">
-        <v>0.2880172356561914</v>
+        <v>0.2016221026738769</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8118956443212966</v>
+        <v>0.6340819900972576</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.176917943994113</v>
+        <v>3.730665990949774</v>
       </c>
       <c r="C24">
-        <v>0.341861403583664</v>
+        <v>1.09456320703643</v>
       </c>
       <c r="D24">
-        <v>0.01521314525546558</v>
+        <v>0.04356839740475493</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5162234943808528</v>
+        <v>0.7659136020991326</v>
       </c>
       <c r="G24">
-        <v>0.364374670192646</v>
+        <v>0.6470607969841922</v>
       </c>
       <c r="H24">
-        <v>0.4609301279958231</v>
+        <v>0.3519384295006347</v>
       </c>
       <c r="I24">
-        <v>0.2912412504321935</v>
+        <v>0.1837797985171363</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8130647103585318</v>
+        <v>0.6278508188481453</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9735212901853743</v>
+        <v>3.0539326840385</v>
       </c>
       <c r="C25">
-        <v>0.2827862561440497</v>
+        <v>0.8993397283560114</v>
       </c>
       <c r="D25">
-        <v>0.01287779329090455</v>
+        <v>0.03656837296720994</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4935222974732341</v>
+        <v>0.6359066997972747</v>
       </c>
       <c r="G25">
-        <v>0.3436456421788563</v>
+        <v>0.5306976756367163</v>
       </c>
       <c r="H25">
-        <v>0.4594949878401451</v>
+        <v>0.3103033288079047</v>
       </c>
       <c r="I25">
-        <v>0.2958806213648835</v>
+        <v>0.1690454262853969</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8157892647763134</v>
+        <v>0.6258135945527172</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_6/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.559291466870377</v>
+        <v>3.014348718239603</v>
       </c>
       <c r="C2">
-        <v>0.7568290025104432</v>
+        <v>0.6164377240300212</v>
       </c>
       <c r="D2">
-        <v>0.03141568234921976</v>
+        <v>0.02651638833251724</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5463393994748316</v>
+        <v>0.929111548511969</v>
       </c>
       <c r="G2">
-        <v>0.4511352141664275</v>
+        <v>0.8624131477225347</v>
       </c>
       <c r="H2">
-        <v>0.283052248034906</v>
+        <v>7.032657375560802E-06</v>
       </c>
       <c r="I2">
-        <v>0.1614430227141277</v>
+        <v>0.001213042691791344</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5461702413000751</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5184723443731158</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +463,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6278757144756426</v>
+        <v>0.45864839548085</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.7281153562748059</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.225454768674467</v>
+        <v>2.623987325115479</v>
       </c>
       <c r="C3">
-        <v>0.6607105162437108</v>
+        <v>0.5462577472265195</v>
       </c>
       <c r="D3">
-        <v>0.02791955661953693</v>
+        <v>0.02510511158084938</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4888171515888331</v>
+        <v>0.8427000163458587</v>
       </c>
       <c r="G3">
-        <v>0.4003486320964953</v>
+        <v>0.7802113866764273</v>
       </c>
       <c r="H3">
-        <v>0.2663951303702987</v>
+        <v>0.0001491692732800143</v>
       </c>
       <c r="I3">
-        <v>0.1580301573422602</v>
+        <v>0.0005435664818964625</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5122956945486408</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4934646147598585</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +516,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6312850380655206</v>
+        <v>0.4045922789169225</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.7535418081999872</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.020900401083878</v>
+        <v>2.383831880977141</v>
       </c>
       <c r="C4">
-        <v>0.6018308905326251</v>
+        <v>0.5034341335048111</v>
       </c>
       <c r="D4">
-        <v>0.02576949812700136</v>
+        <v>0.02423162911439647</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4548656189325584</v>
+        <v>0.7903818737123203</v>
       </c>
       <c r="G4">
-        <v>0.3705050452460483</v>
+        <v>0.7303832941010171</v>
       </c>
       <c r="H4">
-        <v>0.2569663522534285</v>
+        <v>0.0004690753958749294</v>
       </c>
       <c r="I4">
-        <v>0.1567056508779316</v>
+        <v>0.0004260716398460929</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4919131993240882</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.478375709931413</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +569,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.634307019209146</v>
+        <v>0.3714196164757766</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.7697530307061164</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.937614366859037</v>
+        <v>2.284265241260186</v>
       </c>
       <c r="C5">
-        <v>0.5778594152299092</v>
+        <v>0.4865127282720039</v>
       </c>
       <c r="D5">
-        <v>0.02489229798409553</v>
+        <v>0.02390130854378469</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4413461305713113</v>
+        <v>0.7684079374220545</v>
       </c>
       <c r="G5">
-        <v>0.3586517674910397</v>
+        <v>0.7092952318027841</v>
       </c>
       <c r="H5">
-        <v>0.2533117495976285</v>
+        <v>0.0006560598872371592</v>
       </c>
       <c r="I5">
-        <v>0.1563476089072005</v>
+        <v>0.0005130127301127274</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4832343400992869</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4716481620529507</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +622,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.635763146797089</v>
+        <v>0.3578811951390151</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.7766075599035283</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.923788131380832</v>
+        <v>2.26580951119746</v>
       </c>
       <c r="C6">
-        <v>0.573879986616106</v>
+        <v>0.4842890749027049</v>
       </c>
       <c r="D6">
-        <v>0.02474657239385536</v>
+        <v>0.02388011130312151</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4391195339373937</v>
+        <v>0.7637639346219061</v>
       </c>
       <c r="G6">
-        <v>0.3567013490493025</v>
+        <v>0.7046682532199213</v>
       </c>
       <c r="H6">
-        <v>0.2527158715572853</v>
+        <v>0.0006920360875111164</v>
       </c>
       <c r="I6">
-        <v>0.1562987872509822</v>
+        <v>0.0006189954986650648</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.481224680737995</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4697532144557854</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +675,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6360182543470287</v>
+        <v>0.3556090613412408</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.7778824548241055</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.019776931191245</v>
+        <v>2.377241450535678</v>
       </c>
       <c r="C7">
-        <v>0.6015075273857065</v>
+        <v>0.5048036657556736</v>
       </c>
       <c r="D7">
-        <v>0.02575767230172588</v>
+        <v>0.02431987023561888</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4546820463887329</v>
+        <v>0.7873351327969402</v>
       </c>
       <c r="G7">
-        <v>0.3703439764759082</v>
+        <v>0.7269960294003539</v>
       </c>
       <c r="H7">
-        <v>0.2569163218607287</v>
+        <v>0.0004750212911712737</v>
       </c>
       <c r="I7">
-        <v>0.1567001020941348</v>
+        <v>0.0006492774080237851</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4902258489484694</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4761482982638654</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +728,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6343257588091475</v>
+        <v>0.3711718038542529</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.7702098513633189</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.444075111231655</v>
+        <v>2.872805922945645</v>
       </c>
       <c r="C8">
-        <v>0.7236512280072986</v>
+        <v>0.5943140520792838</v>
       </c>
       <c r="D8">
-        <v>0.03021081812865845</v>
+        <v>0.02615637779318192</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5262047039795874</v>
+        <v>0.8954930499760252</v>
       </c>
       <c r="G8">
-        <v>0.4333282296093586</v>
+        <v>0.8297959004653563</v>
       </c>
       <c r="H8">
-        <v>0.2771349383874053</v>
+        <v>6.321031429390445E-06</v>
       </c>
       <c r="I8">
-        <v>0.1600987136017409</v>
+        <v>0.001177495833200481</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5323149065013126</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5069567432393214</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +781,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6288530062547295</v>
+        <v>0.4399164313748116</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.7373090175788413</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.281201931458384</v>
+        <v>3.851373517934462</v>
       </c>
       <c r="C9">
-        <v>0.9648663288959369</v>
+        <v>0.7697109506373181</v>
       </c>
       <c r="D9">
-        <v>0.03892540651721532</v>
+        <v>0.02953635656589881</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6786501839676049</v>
+        <v>1.11928924503944</v>
       </c>
       <c r="G9">
-        <v>0.5688488577509077</v>
+        <v>1.042955027360819</v>
       </c>
       <c r="H9">
-        <v>0.323755225592393</v>
+        <v>0.001088074941627548</v>
       </c>
       <c r="I9">
-        <v>0.1734642199918071</v>
+        <v>0.004437611618792303</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.6213714180588141</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.5736226089122951</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +834,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6259168876577235</v>
+        <v>0.5752388300882956</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.6770011420761719</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.901982229897726</v>
+        <v>4.540604085687335</v>
       </c>
       <c r="C10">
-        <v>1.14403902057478</v>
+        <v>0.9102727267796524</v>
       </c>
       <c r="D10">
-        <v>0.0453318396842306</v>
+        <v>0.03254827603436183</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8000870400200881</v>
+        <v>1.274116111977278</v>
       </c>
       <c r="G10">
-        <v>0.677799367688479</v>
+        <v>1.187551010649202</v>
       </c>
       <c r="H10">
-        <v>0.3632045774411807</v>
+        <v>0.003334910606093366</v>
       </c>
       <c r="I10">
-        <v>0.1882357235997816</v>
+        <v>0.008692814416327188</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.681182239282407</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.6131006979849474</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +887,51 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.629150054680494</v>
+        <v>0.6443839786860366</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.6392575141249779</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.186286264699049</v>
+        <v>4.610823129381799</v>
       </c>
       <c r="C11">
-        <v>1.226199621860985</v>
+        <v>1.053438214463142</v>
       </c>
       <c r="D11">
-        <v>0.04825089695167151</v>
+        <v>0.03909448265233095</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8578651599212321</v>
+        <v>1.223880312373652</v>
       </c>
       <c r="G11">
-        <v>0.7299006371933956</v>
+        <v>1.117727879659185</v>
       </c>
       <c r="H11">
-        <v>0.3825090849776274</v>
+        <v>0.02176618132912012</v>
       </c>
       <c r="I11">
-        <v>0.1962398944019803</v>
+        <v>0.01040065421015868</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.6406428506205941</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.5411088173779746</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +940,51 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6319452514855328</v>
+        <v>0.4360479658116532</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.6578521330545328</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.294277262922492</v>
+        <v>4.530628500274588</v>
       </c>
       <c r="C12">
-        <v>1.257426262797537</v>
+        <v>1.14715304072854</v>
       </c>
       <c r="D12">
-        <v>0.04935729035263847</v>
+        <v>0.04460295138308368</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8801528751599506</v>
+        <v>1.153354179488673</v>
       </c>
       <c r="G12">
-        <v>0.7500405751616057</v>
+        <v>1.034553301022314</v>
       </c>
       <c r="H12">
-        <v>0.3900354838614533</v>
+        <v>0.06008554425658019</v>
       </c>
       <c r="I12">
-        <v>0.199474600698089</v>
+        <v>0.01053476697951616</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5967200671152</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.4785828825026357</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +993,51 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6332081429241185</v>
+        <v>0.2837236121274174</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.690687242424822</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.271003777160274</v>
+        <v>4.322307965475545</v>
       </c>
       <c r="C13">
-        <v>1.250695626370032</v>
+        <v>1.209563379288142</v>
       </c>
       <c r="D13">
-        <v>0.04911895820059442</v>
+        <v>0.04970464644048178</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8753339175130037</v>
+        <v>1.05872384124433</v>
       </c>
       <c r="G13">
-        <v>0.745684069363179</v>
+        <v>0.9314324128958447</v>
       </c>
       <c r="H13">
-        <v>0.3884045733022106</v>
+        <v>0.1152750189415315</v>
       </c>
       <c r="I13">
-        <v>0.1987685701281094</v>
+        <v>0.009729008195183297</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5451506541284914</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.4164434078660193</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1046,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6329268313102716</v>
+        <v>0.1660998846912065</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.7357431343366514</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.19516376676404</v>
+        <v>4.11815412602914</v>
       </c>
       <c r="C14">
-        <v>1.228766245366046</v>
+        <v>1.239800045381401</v>
       </c>
       <c r="D14">
-        <v>0.0483418983519357</v>
+        <v>0.05318704110563033</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.8596903351886311</v>
+        <v>0.9815627936338416</v>
       </c>
       <c r="G14">
-        <v>0.7315490660883768</v>
+        <v>0.850349952152726</v>
       </c>
       <c r="H14">
-        <v>0.3831238278690705</v>
+        <v>0.1641785010673118</v>
       </c>
       <c r="I14">
-        <v>0.1965018188642773</v>
+        <v>0.008858265074780824</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.505600537588407</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3734476057266818</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1099,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6320449697292645</v>
+        <v>0.1051573367199978</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.7738518752036114</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.148754481455626</v>
+        <v>4.039804863220127</v>
       </c>
       <c r="C15">
-        <v>1.215349369517753</v>
+        <v>1.240463648164393</v>
       </c>
       <c r="D15">
-        <v>0.04786606863660126</v>
+        <v>0.05390137392002003</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.850162735031887</v>
+        <v>0.9567903850513915</v>
       </c>
       <c r="G15">
-        <v>0.7229458104788336</v>
+        <v>0.8252961444047031</v>
       </c>
       <c r="H15">
-        <v>0.3799180221660947</v>
+        <v>0.1765070377973217</v>
       </c>
       <c r="I15">
-        <v>0.1951404860938162</v>
+        <v>0.008554548777302884</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4938270276772414</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3621215413969026</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1152,51 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6315318575068289</v>
+        <v>0.09290816011623804</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.7848359778788208</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.883445432324265</v>
+        <v>3.787792511207385</v>
       </c>
       <c r="C16">
-        <v>1.138684473444869</v>
+        <v>1.165203347896266</v>
       </c>
       <c r="D16">
-        <v>0.04514119501807556</v>
+        <v>0.05143399028821705</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7963657892397293</v>
+        <v>0.9087885296658698</v>
       </c>
       <c r="G16">
-        <v>0.6744492986808126</v>
+        <v>0.7836399871804645</v>
       </c>
       <c r="H16">
-        <v>0.3619720641428188</v>
+        <v>0.1629657563568969</v>
       </c>
       <c r="I16">
-        <v>0.1877400684956463</v>
+        <v>0.006912502539375254</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4781431775775502</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.357514179495162</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1205,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.628995201457613</v>
+        <v>0.09106929928220708</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.7884691976117537</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.721214492345837</v>
+        <v>3.702193099548253</v>
       </c>
       <c r="C17">
-        <v>1.09183431822882</v>
+        <v>1.091711962852798</v>
       </c>
       <c r="D17">
-        <v>0.04347100924388769</v>
+        <v>0.0476699518342798</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7640426031869083</v>
+        <v>0.9127242095386947</v>
       </c>
       <c r="G17">
-        <v>0.6453795765974206</v>
+        <v>0.7943224212869637</v>
       </c>
       <c r="H17">
-        <v>0.3513250853857386</v>
+        <v>0.1248112254309888</v>
       </c>
       <c r="I17">
-        <v>0.1835421847444287</v>
+        <v>0.006164118048258338</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.486968983696741</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3762982567663329</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1258,51 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6277878554991929</v>
+        <v>0.1179379646197134</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.7709845008715348</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.628079439701537</v>
+        <v>3.753744988773065</v>
       </c>
       <c r="C18">
-        <v>1.064947596797111</v>
+        <v>1.011611916111377</v>
       </c>
       <c r="D18">
-        <v>0.04251078682943898</v>
+        <v>0.04257156953898544</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7456870266385494</v>
+        <v>0.9641954290716228</v>
       </c>
       <c r="G18">
-        <v>0.62889551652286</v>
+        <v>0.8544815775654797</v>
       </c>
       <c r="H18">
-        <v>0.345327776784444</v>
+        <v>0.07196112309151204</v>
       </c>
       <c r="I18">
-        <v>0.181247356039627</v>
+        <v>0.005761251991336813</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.519405355042494</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4205458572082748</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1311,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.627217183729897</v>
+        <v>0.1915284308270273</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.736698805537408</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.59657406962566</v>
+        <v>3.902889019308759</v>
       </c>
       <c r="C19">
-        <v>1.055853978732301</v>
+        <v>0.9384598420828354</v>
       </c>
       <c r="D19">
-        <v>0.04218573547309745</v>
+        <v>0.03753240199593932</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7395113794762835</v>
+        <v>1.046907497640873</v>
       </c>
       <c r="G19">
-        <v>0.6233535269463317</v>
+        <v>0.9473062426316261</v>
       </c>
       <c r="H19">
-        <v>0.3433183206174988</v>
+        <v>0.02707909083288484</v>
       </c>
       <c r="I19">
-        <v>0.180490368408865</v>
+        <v>0.006159442337655641</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5668934732170356</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.4820251253657091</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1364,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6270448123522669</v>
+        <v>0.3262194052733065</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.70015540531206</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.738465652663479</v>
+        <v>4.341533064189207</v>
       </c>
       <c r="C20">
-        <v>1.096815221667299</v>
+        <v>0.8786571953397413</v>
       </c>
       <c r="D20">
-        <v>0.04364875719831218</v>
+        <v>0.03209381869852734</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7674587450324424</v>
+        <v>1.223784093677267</v>
       </c>
       <c r="G20">
-        <v>0.648449349868244</v>
+        <v>1.138760517306281</v>
       </c>
       <c r="H20">
-        <v>0.3524452316061684</v>
+        <v>0.002599895097008531</v>
       </c>
       <c r="I20">
-        <v>0.1839765372524731</v>
+        <v>0.008081056535369058</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.660020007400675</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.5955023788636211</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1417,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.627903472979753</v>
+        <v>0.6246945519620937</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.650756793593235</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.2174303480204</v>
+        <v>4.915702868857693</v>
       </c>
       <c r="C21">
-        <v>1.235204166606479</v>
+        <v>0.9738557589990364</v>
       </c>
       <c r="D21">
-        <v>0.04857010945918461</v>
+        <v>0.03355252173167855</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8642737839502672</v>
+        <v>1.367599218348218</v>
       </c>
       <c r="G21">
-        <v>0.7356893440345118</v>
+        <v>1.27749133959702</v>
       </c>
       <c r="H21">
-        <v>0.3846688685638924</v>
+        <v>0.004843249730501098</v>
       </c>
       <c r="I21">
-        <v>0.1971619312215331</v>
+        <v>0.01205411119754007</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7199029610089838</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.643962923426848</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1470,51 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6322983294584503</v>
+        <v>0.725814465271327</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.6181950469322466</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.532422299202551</v>
+        <v>5.284995560834773</v>
       </c>
       <c r="C22">
-        <v>1.326325770015899</v>
+        <v>1.038917347230097</v>
       </c>
       <c r="D22">
-        <v>0.05179256316394287</v>
+        <v>0.03463065437287227</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.9299514613040998</v>
+        <v>1.459753228434693</v>
       </c>
       <c r="G22">
-        <v>0.7951211786199224</v>
+        <v>1.365812477744356</v>
       </c>
       <c r="H22">
-        <v>0.4070000253519765</v>
+        <v>0.006657119292919345</v>
       </c>
       <c r="I22">
-        <v>0.2069766343610766</v>
+        <v>0.01479455424523213</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7579228900620762</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.6736822578084798</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1523,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6363693732298543</v>
+        <v>0.7765280417947338</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.5983805700464977</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.364105598432161</v>
+        <v>5.094336153472796</v>
       </c>
       <c r="C23">
-        <v>1.277623397351817</v>
+        <v>1.002145337516794</v>
       </c>
       <c r="D23">
-        <v>0.05007200560214642</v>
+        <v>0.03393624760457215</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8946627032363779</v>
+        <v>1.413742368321735</v>
       </c>
       <c r="G23">
-        <v>0.7631643223215292</v>
+        <v>1.322280876168122</v>
       </c>
       <c r="H23">
-        <v>0.3949578109704248</v>
+        <v>0.005668397404896552</v>
       </c>
       <c r="I23">
-        <v>0.2016221026738769</v>
+        <v>0.01304738289212537</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7394346800031428</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.6603083320193406</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1576,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6340819900972576</v>
+        <v>0.7495173592700297</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.6082072893448398</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.730665990949774</v>
+        <v>4.363208756248184</v>
       </c>
       <c r="C24">
-        <v>1.09456320703643</v>
+        <v>0.8675866911039805</v>
       </c>
       <c r="D24">
-        <v>0.04356839740475493</v>
+        <v>0.03148599583536438</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7659136020991326</v>
+        <v>1.237274933250674</v>
       </c>
       <c r="G24">
-        <v>0.6470607969841922</v>
+        <v>1.154352568706258</v>
       </c>
       <c r="H24">
-        <v>0.3519384295006347</v>
+        <v>0.002586111816166081</v>
       </c>
       <c r="I24">
-        <v>0.1837797985171363</v>
+        <v>0.007696450112706366</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6679777540127247</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.6067642657262269</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1629,51 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6278508188481453</v>
+        <v>0.6475867462507381</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.6479772559777643</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.0539326840385</v>
+        <v>3.577039288013395</v>
       </c>
       <c r="C25">
-        <v>0.8993397283560114</v>
+        <v>0.7248332041203014</v>
       </c>
       <c r="D25">
-        <v>0.03656837296720994</v>
+        <v>0.02880311919497913</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6359066997972747</v>
+        <v>1.052862460655959</v>
       </c>
       <c r="G25">
-        <v>0.5306976756367163</v>
+        <v>0.9788442979994585</v>
       </c>
       <c r="H25">
-        <v>0.3103033288079047</v>
+        <v>0.0005522160986324298</v>
       </c>
       <c r="I25">
-        <v>0.1690454262853969</v>
+        <v>0.003612017023357339</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5939682384349965</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.5514065612538985</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,9 +1682,15 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6258135945527172</v>
+        <v>0.5384306731066886</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.6936321226318718</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_6/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.014348718239603</v>
+        <v>2.844853515352099</v>
       </c>
       <c r="C2">
-        <v>0.6164377240300212</v>
+        <v>0.653697494245904</v>
       </c>
       <c r="D2">
-        <v>0.02651638833251724</v>
+        <v>0.02982824279343177</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.929111548511969</v>
+        <v>0.8402246209585229</v>
       </c>
       <c r="G2">
-        <v>0.8624131477225347</v>
+        <v>0.7406376974907971</v>
       </c>
       <c r="H2">
-        <v>7.032657375560802E-06</v>
+        <v>1.121991783104015E-05</v>
       </c>
       <c r="I2">
-        <v>0.001213042691791344</v>
+        <v>0.001361958466554292</v>
       </c>
       <c r="J2">
-        <v>0.5461702413000751</v>
+        <v>0.5427011418417464</v>
       </c>
       <c r="K2">
-        <v>0.5184723443731158</v>
+        <v>0.4457967047470888</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2234038382527679</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1227047602280393</v>
       </c>
       <c r="N2">
-        <v>0.45864839548085</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7281153562748059</v>
+        <v>0.4592293742771005</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.7389376343362812</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.623987325115479</v>
+        <v>2.484860301490187</v>
       </c>
       <c r="C3">
-        <v>0.5462577472265195</v>
+        <v>0.5745569907999482</v>
       </c>
       <c r="D3">
-        <v>0.02510511158084938</v>
+        <v>0.02756071712812158</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8427000163458587</v>
+        <v>0.7674732079543105</v>
       </c>
       <c r="G3">
-        <v>0.7802113866764273</v>
+        <v>0.6740175963398798</v>
       </c>
       <c r="H3">
-        <v>0.0001491692732800143</v>
+        <v>0.0001034697761370662</v>
       </c>
       <c r="I3">
-        <v>0.0005435664818964625</v>
+        <v>0.0007098269134151458</v>
       </c>
       <c r="J3">
-        <v>0.5122956945486408</v>
+        <v>0.5131276047261508</v>
       </c>
       <c r="K3">
-        <v>0.4934646147598585</v>
+        <v>0.4298681943873746</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2239423808052941</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1110014252892384</v>
       </c>
       <c r="N3">
-        <v>0.4045922789169225</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7535418081999872</v>
+        <v>0.4062306422323445</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.7568790370487335</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.383831880977141</v>
+        <v>2.262827118319194</v>
       </c>
       <c r="C4">
-        <v>0.5034341335048111</v>
+        <v>0.5263413618850166</v>
       </c>
       <c r="D4">
-        <v>0.02423162911439647</v>
+        <v>0.02617250724868114</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7903818737123203</v>
+        <v>0.7232593753735372</v>
       </c>
       <c r="G4">
-        <v>0.7303832941010171</v>
+        <v>0.6336490084170521</v>
       </c>
       <c r="H4">
-        <v>0.0004690753958749294</v>
+        <v>0.0003523771018520971</v>
       </c>
       <c r="I4">
-        <v>0.0004260716398460929</v>
+        <v>0.0005418775805936527</v>
       </c>
       <c r="J4">
-        <v>0.4919131993240882</v>
+        <v>0.4950070648990277</v>
       </c>
       <c r="K4">
-        <v>0.478375709931413</v>
+        <v>0.4201906548193897</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2241529983923165</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1045336552471205</v>
       </c>
       <c r="N4">
-        <v>0.3714196164757766</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7697530307061164</v>
+        <v>0.3736817740279861</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.7685919172976625</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.284265241260186</v>
+        <v>2.170601324783092</v>
       </c>
       <c r="C5">
-        <v>0.4865127282720039</v>
+        <v>0.5072735058728597</v>
       </c>
       <c r="D5">
-        <v>0.02390130854378469</v>
+        <v>0.02564007391435652</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7684079374220545</v>
+        <v>0.7045790255232234</v>
       </c>
       <c r="G5">
-        <v>0.7092952318027841</v>
+        <v>0.6164709997077438</v>
       </c>
       <c r="H5">
-        <v>0.0006560598872371592</v>
+        <v>0.0005006913401375268</v>
       </c>
       <c r="I5">
-        <v>0.0005130127301127274</v>
+        <v>0.0006065168351065964</v>
       </c>
       <c r="J5">
-        <v>0.4832343400992869</v>
+        <v>0.4871828663505937</v>
       </c>
       <c r="K5">
-        <v>0.4716481620529507</v>
+        <v>0.4157009427576952</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2239485688180451</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1019067477492825</v>
       </c>
       <c r="N5">
-        <v>0.3578811951390151</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7766075599035283</v>
+        <v>0.3603931480246132</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.7737185379662463</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.26580951119746</v>
+        <v>2.153455010635298</v>
       </c>
       <c r="C6">
-        <v>0.4842890749027049</v>
+        <v>0.5047230224718646</v>
       </c>
       <c r="D6">
-        <v>0.02388011130312151</v>
+        <v>0.02559158228873315</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7637639346219061</v>
+        <v>0.7005490687545901</v>
       </c>
       <c r="G6">
-        <v>0.7046682532199213</v>
+        <v>0.6125911580298862</v>
       </c>
       <c r="H6">
-        <v>0.0006920360875111164</v>
+        <v>0.0005293944752746693</v>
       </c>
       <c r="I6">
-        <v>0.0006189954986650648</v>
+        <v>0.000724794907551285</v>
       </c>
       <c r="J6">
-        <v>0.481224680737995</v>
+        <v>0.4853385372786505</v>
       </c>
       <c r="K6">
-        <v>0.4697532144557854</v>
+        <v>0.4142631596526094</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2235961600431793</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1012744189644508</v>
       </c>
       <c r="N6">
-        <v>0.3556090613412408</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7778824548241055</v>
+        <v>0.358163269634403</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.7748070463831915</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.377241450535678</v>
+        <v>2.25444398264915</v>
       </c>
       <c r="C7">
-        <v>0.5048036657556736</v>
+        <v>0.5266299681646274</v>
       </c>
       <c r="D7">
-        <v>0.02431987023561888</v>
+        <v>0.02635377920433157</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7873351327969402</v>
+        <v>0.7186982474817682</v>
       </c>
       <c r="G7">
-        <v>0.7269960294003539</v>
+        <v>0.6343768633890932</v>
       </c>
       <c r="H7">
-        <v>0.0004750212911712737</v>
+        <v>0.0003586094118444016</v>
       </c>
       <c r="I7">
-        <v>0.0006492774080237851</v>
+        <v>0.0008080434583312979</v>
       </c>
       <c r="J7">
-        <v>0.4902258489484694</v>
+        <v>0.4863599956025126</v>
       </c>
       <c r="K7">
-        <v>0.4761482982638654</v>
+        <v>0.4174271057747738</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2229385964704171</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1036684016439331</v>
       </c>
       <c r="N7">
-        <v>0.3711718038542529</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.7702098513633189</v>
+        <v>0.3734103415005023</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.7695977858055016</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.872805922945645</v>
+        <v>2.707021196028393</v>
       </c>
       <c r="C8">
-        <v>0.5943140520792838</v>
+        <v>0.624770071427605</v>
       </c>
       <c r="D8">
-        <v>0.02615637779318192</v>
+        <v>0.02946528404614313</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8954930499760252</v>
+        <v>0.8058099409587385</v>
       </c>
       <c r="G8">
-        <v>0.8297959004653563</v>
+        <v>0.7264902533022024</v>
       </c>
       <c r="H8">
-        <v>6.321031429390445E-06</v>
+        <v>2.160058059530456E-06</v>
       </c>
       <c r="I8">
-        <v>0.001177495833200481</v>
+        <v>0.001393494979972765</v>
       </c>
       <c r="J8">
-        <v>0.5323149065013126</v>
+        <v>0.5072941984172701</v>
       </c>
       <c r="K8">
-        <v>0.5069567432393214</v>
+        <v>0.435118644882543</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2214441049583407</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.116788421578903</v>
       </c>
       <c r="N8">
-        <v>0.4399164313748116</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7373090175788413</v>
+        <v>0.4407747476287653</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.7470239352577011</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.851373517934462</v>
+        <v>3.60406377356793</v>
       </c>
       <c r="C9">
-        <v>0.7697109506373181</v>
+        <v>0.8218705155579187</v>
       </c>
       <c r="D9">
-        <v>0.02953635656589881</v>
+        <v>0.03511557658655562</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.11928924503944</v>
+        <v>0.9918606729137025</v>
       </c>
       <c r="G9">
-        <v>1.042955027360819</v>
+        <v>0.9034296386877685</v>
       </c>
       <c r="H9">
-        <v>0.001088074941627548</v>
+        <v>0.000945444306795995</v>
       </c>
       <c r="I9">
-        <v>0.004437611618792303</v>
+        <v>0.004152633401340644</v>
       </c>
       <c r="J9">
-        <v>0.6213714180588141</v>
+        <v>0.576622730258407</v>
       </c>
       <c r="K9">
-        <v>0.5736226089122951</v>
+        <v>0.4771243289774034</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2202931186758867</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1504076433603068</v>
       </c>
       <c r="N9">
-        <v>0.5752388300882956</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6770011420761719</v>
+        <v>0.5732339596519438</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.7061136628831548</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.540604085687335</v>
+        <v>4.22111324988856</v>
       </c>
       <c r="C10">
-        <v>0.9102727267796524</v>
+        <v>0.9715984233466202</v>
       </c>
       <c r="D10">
-        <v>0.03254827603436183</v>
+        <v>0.04045345005468448</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.274116111977278</v>
+        <v>1.109320701779964</v>
       </c>
       <c r="G10">
-        <v>1.187551010649202</v>
+        <v>1.046489390779087</v>
       </c>
       <c r="H10">
-        <v>0.003334910606093366</v>
+        <v>0.002830169560763984</v>
       </c>
       <c r="I10">
-        <v>0.008692814416327188</v>
+        <v>0.007634425398424405</v>
       </c>
       <c r="J10">
-        <v>0.681182239282407</v>
+        <v>0.5814904151542493</v>
       </c>
       <c r="K10">
-        <v>0.6131006979849474</v>
+        <v>0.4953754121981717</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.214082926163897</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1734747523114351</v>
       </c>
       <c r="N10">
-        <v>0.6443839786860366</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6392575141249779</v>
+        <v>0.6399932606372545</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.6871199573366695</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.610823129381799</v>
+        <v>4.270903142011832</v>
       </c>
       <c r="C11">
-        <v>1.053438214463142</v>
+        <v>1.102293726778981</v>
       </c>
       <c r="D11">
-        <v>0.03909448265233095</v>
+        <v>0.04975105824627946</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.223880312373652</v>
+        <v>1.046024982011815</v>
       </c>
       <c r="G11">
-        <v>1.117727879659185</v>
+        <v>1.03726965578376</v>
       </c>
       <c r="H11">
-        <v>0.02176618132912012</v>
+        <v>0.02118679565596082</v>
       </c>
       <c r="I11">
-        <v>0.01040065421015868</v>
+        <v>0.009123848258555611</v>
       </c>
       <c r="J11">
-        <v>0.6406428506205941</v>
+        <v>0.4707691599912351</v>
       </c>
       <c r="K11">
-        <v>0.5411088173779746</v>
+        <v>0.4273187564446346</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1846729518494818</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1532409270270065</v>
       </c>
       <c r="N11">
-        <v>0.4360479658116532</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6578521330545328</v>
+        <v>0.4313741417096395</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.7323956029161138</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.530628500274588</v>
+        <v>4.196895837272905</v>
       </c>
       <c r="C12">
-        <v>1.14715304072854</v>
+        <v>1.186105314681157</v>
       </c>
       <c r="D12">
-        <v>0.04460295138308368</v>
+        <v>0.0567465626109751</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.153354179488673</v>
+        <v>0.9788718449110974</v>
       </c>
       <c r="G12">
-        <v>1.034553301022314</v>
+        <v>0.9889698577104014</v>
       </c>
       <c r="H12">
-        <v>0.06008554425658019</v>
+        <v>0.05952874299118349</v>
       </c>
       <c r="I12">
-        <v>0.01053476697951616</v>
+        <v>0.009204299190396448</v>
       </c>
       <c r="J12">
-        <v>0.5967200671152</v>
+        <v>0.407159912284385</v>
       </c>
       <c r="K12">
-        <v>0.4785828825026357</v>
+        <v>0.3750330933210364</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.164870522631599</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.134248961657331</v>
       </c>
       <c r="N12">
-        <v>0.2837236121274174</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.690687242424822</v>
+        <v>0.2793810980333546</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.7812088850533598</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.322307965475545</v>
+        <v>4.021412235776609</v>
       </c>
       <c r="C13">
-        <v>1.209563379288142</v>
+        <v>1.244500537086196</v>
       </c>
       <c r="D13">
-        <v>0.04970464644048178</v>
+        <v>0.06194000579615278</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.05872384124433</v>
+        <v>0.9042066607516404</v>
       </c>
       <c r="G13">
-        <v>0.9314324128958447</v>
+        <v>0.8945719730537718</v>
       </c>
       <c r="H13">
-        <v>0.1152750189415315</v>
+        <v>0.1148181736951557</v>
       </c>
       <c r="I13">
-        <v>0.009729008195183297</v>
+        <v>0.008578307584136802</v>
       </c>
       <c r="J13">
-        <v>0.5451506541284914</v>
+        <v>0.3801256019828259</v>
       </c>
       <c r="K13">
-        <v>0.4164434078660193</v>
+        <v>0.3296608304631761</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1497670830927973</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1148505475893806</v>
       </c>
       <c r="N13">
-        <v>0.1660998846912065</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.7357431343366514</v>
+        <v>0.1624988170477764</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.8317134979011627</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.11815412602914</v>
+        <v>3.851471795984764</v>
       </c>
       <c r="C14">
-        <v>1.239800045381401</v>
+        <v>1.274790769328206</v>
       </c>
       <c r="D14">
-        <v>0.05318704110563033</v>
+        <v>0.06476370308347867</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9815627936338416</v>
+        <v>0.8476534526493822</v>
       </c>
       <c r="G14">
-        <v>0.850349952152726</v>
+        <v>0.809412606454373</v>
       </c>
       <c r="H14">
-        <v>0.1641785010673118</v>
+        <v>0.1638140033292927</v>
       </c>
       <c r="I14">
-        <v>0.008858265074780824</v>
+        <v>0.007938245832043833</v>
       </c>
       <c r="J14">
-        <v>0.505600537588407</v>
+        <v>0.3746832300427343</v>
       </c>
       <c r="K14">
-        <v>0.3734476057266818</v>
+        <v>0.3005795322025264</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1408999573538914</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1011860465046901</v>
       </c>
       <c r="N14">
-        <v>0.1051573367199978</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.7738518752036114</v>
+        <v>0.1021892081719145</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.8679411361967908</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.039804863220127</v>
+        <v>3.786502905352279</v>
       </c>
       <c r="C15">
-        <v>1.240463648164393</v>
+        <v>1.276790677487213</v>
       </c>
       <c r="D15">
-        <v>0.05390137392002003</v>
+        <v>0.06502459456498855</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9567903850513915</v>
+        <v>0.8308930545036191</v>
       </c>
       <c r="G15">
-        <v>0.8252961444047031</v>
+        <v>0.7794102110859029</v>
       </c>
       <c r="H15">
-        <v>0.1765070377973217</v>
+        <v>0.1761805316679954</v>
       </c>
       <c r="I15">
-        <v>0.008554548777302884</v>
+        <v>0.007757445016304487</v>
       </c>
       <c r="J15">
-        <v>0.4938270276772414</v>
+        <v>0.3786622198032177</v>
       </c>
       <c r="K15">
-        <v>0.3621215413969026</v>
+        <v>0.2937798558855782</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1391751026386743</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.09744703387255171</v>
       </c>
       <c r="N15">
-        <v>0.09290816011623804</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.7848359778788208</v>
+        <v>0.09016756400082571</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.876285410720314</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.787792511207385</v>
+        <v>3.577479835306463</v>
       </c>
       <c r="C16">
-        <v>1.165203347896266</v>
+        <v>1.211647997101949</v>
       </c>
       <c r="D16">
-        <v>0.05143399028821705</v>
+        <v>0.06016130939995179</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9087885296658698</v>
+        <v>0.8082583889080581</v>
       </c>
       <c r="G16">
-        <v>0.7836399871804645</v>
+        <v>0.7056440556503816</v>
       </c>
       <c r="H16">
-        <v>0.1629657563568969</v>
+        <v>0.1627865856384005</v>
       </c>
       <c r="I16">
-        <v>0.006912502539375254</v>
+        <v>0.006530947725324587</v>
       </c>
       <c r="J16">
-        <v>0.4781431775775502</v>
+        <v>0.4275523864105253</v>
       </c>
       <c r="K16">
-        <v>0.357514179495162</v>
+        <v>0.299012399528781</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1444249748555926</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.09443285073283292</v>
       </c>
       <c r="N16">
-        <v>0.09106929928220708</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.7884691976117537</v>
+        <v>0.08909868145636679</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.8619084787867592</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.702193099548253</v>
+        <v>3.503640668004721</v>
       </c>
       <c r="C17">
-        <v>1.091711962852798</v>
+        <v>1.143149866653715</v>
       </c>
       <c r="D17">
-        <v>0.0476699518342798</v>
+        <v>0.05526970066153325</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9127242095386947</v>
+        <v>0.8188614370141067</v>
       </c>
       <c r="G17">
-        <v>0.7943224212869637</v>
+        <v>0.6983703610709995</v>
       </c>
       <c r="H17">
-        <v>0.1248112254309888</v>
+        <v>0.1246885328106089</v>
       </c>
       <c r="I17">
-        <v>0.006164118048258338</v>
+        <v>0.005963635685390045</v>
       </c>
       <c r="J17">
-        <v>0.486968983696741</v>
+        <v>0.4625589488798312</v>
       </c>
       <c r="K17">
-        <v>0.3762982567663329</v>
+        <v>0.3178267472663912</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1533492665873553</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.09879901339235175</v>
       </c>
       <c r="N17">
-        <v>0.1179379646197134</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.7709845008715348</v>
+        <v>0.1162682219081219</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.8342539192005347</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.753744988773065</v>
+        <v>3.546429396194299</v>
       </c>
       <c r="C18">
-        <v>1.011611916111377</v>
+        <v>1.06696961515641</v>
       </c>
       <c r="D18">
-        <v>0.04257156953898544</v>
+        <v>0.0496148855297065</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.9641954290716228</v>
+        <v>0.8651389054885499</v>
       </c>
       <c r="G18">
-        <v>0.8544815775654797</v>
+        <v>0.7414653032903544</v>
       </c>
       <c r="H18">
-        <v>0.07196112309151204</v>
+        <v>0.07184474485373471</v>
       </c>
       <c r="I18">
-        <v>0.005761251991336813</v>
+        <v>0.005553155054337289</v>
       </c>
       <c r="J18">
-        <v>0.519405355042494</v>
+        <v>0.5018464769020312</v>
       </c>
       <c r="K18">
-        <v>0.4205458572082748</v>
+        <v>0.3545315973044865</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1680935598397397</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1113104765135198</v>
       </c>
       <c r="N18">
-        <v>0.1915284308270273</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.736698805537408</v>
+        <v>0.1898148438547693</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.7924488082876877</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.902889019308759</v>
+        <v>3.673149631942238</v>
       </c>
       <c r="C19">
-        <v>0.9384598420828354</v>
+        <v>0.997549245008031</v>
       </c>
       <c r="D19">
-        <v>0.03753240199593932</v>
+        <v>0.04430908617107576</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.046907497640873</v>
+        <v>0.9348796336996514</v>
       </c>
       <c r="G19">
-        <v>0.9473062426316261</v>
+        <v>0.815900538563838</v>
       </c>
       <c r="H19">
-        <v>0.02707909083288484</v>
+        <v>0.02692390366253505</v>
       </c>
       <c r="I19">
-        <v>0.006159442337655641</v>
+        <v>0.005914440699128498</v>
       </c>
       <c r="J19">
-        <v>0.5668934732170356</v>
+        <v>0.5448726903871943</v>
       </c>
       <c r="K19">
-        <v>0.4820251253657091</v>
+        <v>0.4031175372910312</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1864627714269318</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1295294313786144</v>
       </c>
       <c r="N19">
-        <v>0.3262194052733065</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.70015540531206</v>
+        <v>0.3241344062250846</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.749307664396369</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.341533064189207</v>
+        <v>4.050527894276968</v>
       </c>
       <c r="C20">
-        <v>0.8786571953397413</v>
+        <v>0.9421098289045062</v>
       </c>
       <c r="D20">
-        <v>0.03209381869852734</v>
+        <v>0.0391368887005008</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.223784093677267</v>
+        <v>1.076185830829161</v>
       </c>
       <c r="G20">
-        <v>1.138760517306281</v>
+        <v>0.9850884448224519</v>
       </c>
       <c r="H20">
-        <v>0.002599895097008531</v>
+        <v>0.002224538823340172</v>
       </c>
       <c r="I20">
-        <v>0.008081056535369058</v>
+        <v>0.007457551534194806</v>
       </c>
       <c r="J20">
-        <v>0.660020007400675</v>
+        <v>0.5998774517140646</v>
       </c>
       <c r="K20">
-        <v>0.5955023788636211</v>
+        <v>0.487318139579223</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2145360473192923</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1659564848196595</v>
       </c>
       <c r="N20">
-        <v>0.6246945519620937</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.650756793593235</v>
+        <v>0.6210717067171032</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.6933092527899447</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.915702868857693</v>
+        <v>4.518772271063142</v>
       </c>
       <c r="C21">
-        <v>0.9738557589990364</v>
+        <v>1.022384190216599</v>
       </c>
       <c r="D21">
-        <v>0.03355252173167855</v>
+        <v>0.04404848241654946</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.367599218348218</v>
+        <v>1.153114921210133</v>
       </c>
       <c r="G21">
-        <v>1.27749133959702</v>
+        <v>1.194859273331559</v>
       </c>
       <c r="H21">
-        <v>0.004843249730501098</v>
+        <v>0.00398710426353821</v>
       </c>
       <c r="I21">
-        <v>0.01205411119754007</v>
+        <v>0.01044924182438045</v>
       </c>
       <c r="J21">
-        <v>0.7199029610089838</v>
+        <v>0.4937629752249819</v>
       </c>
       <c r="K21">
-        <v>0.643962923426848</v>
+        <v>0.5003431962436267</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2094670703539165</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1840425964772052</v>
       </c>
       <c r="N21">
-        <v>0.725814465271327</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6181950469322466</v>
+        <v>0.7195336409462527</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.6814198601455104</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.284995560834773</v>
+        <v>4.815155729474213</v>
       </c>
       <c r="C22">
-        <v>1.038917347230097</v>
+        <v>1.075517092909053</v>
       </c>
       <c r="D22">
-        <v>0.03463065437287227</v>
+        <v>0.04763267106462621</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.459753228434693</v>
+        <v>1.198802794325559</v>
       </c>
       <c r="G22">
-        <v>1.365812477744356</v>
+        <v>1.340818584296443</v>
       </c>
       <c r="H22">
-        <v>0.006657119292919345</v>
+        <v>0.005405474028668977</v>
       </c>
       <c r="I22">
-        <v>0.01479455424523213</v>
+        <v>0.01234214234332409</v>
       </c>
       <c r="J22">
-        <v>0.7579228900620762</v>
+        <v>0.4237494715199119</v>
       </c>
       <c r="K22">
-        <v>0.6736822578084798</v>
+        <v>0.5060755810714923</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2052079250263183</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1951762450239372</v>
       </c>
       <c r="N22">
-        <v>0.7765280417947338</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.5983805700464977</v>
+        <v>0.7684611050855636</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.676748433210328</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.094336153472796</v>
+        <v>4.669137650599964</v>
       </c>
       <c r="C23">
-        <v>1.002145337516794</v>
+        <v>1.048167669822561</v>
       </c>
       <c r="D23">
-        <v>0.03393624760457215</v>
+        <v>0.04529679243410101</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.413742368321735</v>
+        <v>1.182000598455119</v>
       </c>
       <c r="G23">
-        <v>1.322280876168122</v>
+        <v>1.254791138273589</v>
       </c>
       <c r="H23">
-        <v>0.005668397404896552</v>
+        <v>0.004643764015612617</v>
       </c>
       <c r="I23">
-        <v>0.01304738289212537</v>
+        <v>0.01101219692309208</v>
       </c>
       <c r="J23">
-        <v>0.7394346800031428</v>
+        <v>0.4766151784941712</v>
       </c>
       <c r="K23">
-        <v>0.6603083320193406</v>
+        <v>0.5071843550429023</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.208904475380514</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1909208630204446</v>
       </c>
       <c r="N23">
-        <v>0.7495173592700297</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.6082072893448398</v>
+        <v>0.7424717719</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.6766582258900158</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.363208756248184</v>
+        <v>4.069739377823623</v>
       </c>
       <c r="C24">
-        <v>0.8675866911039805</v>
+        <v>0.9311633671398738</v>
       </c>
       <c r="D24">
-        <v>0.03148599583536438</v>
+        <v>0.03840119474903503</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.237274933250674</v>
+        <v>1.088092921511546</v>
       </c>
       <c r="G24">
-        <v>1.154352568706258</v>
+        <v>0.9976045094280153</v>
       </c>
       <c r="H24">
-        <v>0.002586111816166081</v>
+        <v>0.002200316815394787</v>
       </c>
       <c r="I24">
-        <v>0.007696450112706366</v>
+        <v>0.006960411742246819</v>
       </c>
       <c r="J24">
-        <v>0.6679777540127247</v>
+        <v>0.6079617073827706</v>
       </c>
       <c r="K24">
-        <v>0.6067642657262269</v>
+        <v>0.4966015847763572</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2180691218193758</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1694098245909288</v>
       </c>
       <c r="N24">
-        <v>0.6475867462507381</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.6479772559777643</v>
+        <v>0.6439004296922519</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.6885625866637923</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.577039288013395</v>
+        <v>3.356063168173307</v>
       </c>
       <c r="C25">
-        <v>0.7248332041203014</v>
+        <v>0.7728592874223352</v>
       </c>
       <c r="D25">
-        <v>0.02880311919497913</v>
+        <v>0.03367688250852297</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.052862460655959</v>
+        <v>0.9388887858273876</v>
       </c>
       <c r="G25">
-        <v>0.9788442979994585</v>
+        <v>0.8442534436894533</v>
       </c>
       <c r="H25">
-        <v>0.0005522160986324298</v>
+        <v>0.0004925451270763048</v>
       </c>
       <c r="I25">
-        <v>0.003612017023357339</v>
+        <v>0.003624556566739656</v>
       </c>
       <c r="J25">
-        <v>0.5939682384349965</v>
+        <v>0.565110759092164</v>
       </c>
       <c r="K25">
-        <v>0.5514065612538985</v>
+        <v>0.4634150961950354</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2198475209684041</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1398515499203867</v>
       </c>
       <c r="N25">
-        <v>0.5384306731066886</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.6936321226318718</v>
+        <v>0.5372871209610537</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7174997208510518</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
